--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_2%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6727,28 +6727,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>384.9749543586196</v>
+        <v>447.2912673855125</v>
       </c>
       <c r="AB2" t="n">
-        <v>526.7397164497874</v>
+        <v>612.003645134884</v>
       </c>
       <c r="AC2" t="n">
-        <v>476.4684171956541</v>
+        <v>553.5948761957206</v>
       </c>
       <c r="AD2" t="n">
-        <v>384974.9543586196</v>
+        <v>447291.2673855125</v>
       </c>
       <c r="AE2" t="n">
-        <v>526739.7164497874</v>
+        <v>612003.6451348839</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.800803208503681e-06</v>
+        <v>3.044347172989576e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>476468.4171956541</v>
+        <v>553594.8761957206</v>
       </c>
     </row>
     <row r="3">
@@ -6833,28 +6833,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>247.3088604405554</v>
+        <v>288.8815459128611</v>
       </c>
       <c r="AB3" t="n">
-        <v>338.3788933515078</v>
+        <v>395.2604756723179</v>
       </c>
       <c r="AC3" t="n">
-        <v>306.0844866879002</v>
+        <v>357.5373706257129</v>
       </c>
       <c r="AD3" t="n">
-        <v>247308.8604405554</v>
+        <v>288881.5459128611</v>
       </c>
       <c r="AE3" t="n">
-        <v>338378.8933515078</v>
+        <v>395260.4756723179</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.488426539861804e-06</v>
+        <v>4.206808531907961e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>9</v>
+        <v>8.140432098765434</v>
       </c>
       <c r="AH3" t="n">
-        <v>306084.4866879002</v>
+        <v>357537.3706257129</v>
       </c>
     </row>
     <row r="4">
@@ -6939,28 +6939,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>214.2702553313579</v>
+        <v>255.7575999490885</v>
       </c>
       <c r="AB4" t="n">
-        <v>293.1740162807385</v>
+        <v>349.938831479158</v>
       </c>
       <c r="AC4" t="n">
-        <v>265.1938996393074</v>
+        <v>316.5411605451263</v>
       </c>
       <c r="AD4" t="n">
-        <v>214270.2553313579</v>
+        <v>255757.5999490885</v>
       </c>
       <c r="AE4" t="n">
-        <v>293174.0162807385</v>
+        <v>349938.831479158</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.748655181645925e-06</v>
+        <v>4.646737962400636e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.372685185185186</v>
       </c>
       <c r="AH4" t="n">
-        <v>265193.8996393074</v>
+        <v>316541.1605451263</v>
       </c>
     </row>
     <row r="5">
@@ -7045,28 +7045,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>193.0836970079743</v>
+        <v>234.6562929717254</v>
       </c>
       <c r="AB5" t="n">
-        <v>264.1856324977131</v>
+        <v>321.0670923487818</v>
       </c>
       <c r="AC5" t="n">
-        <v>238.9721265190725</v>
+        <v>290.4248996756037</v>
       </c>
       <c r="AD5" t="n">
-        <v>193083.6970079743</v>
+        <v>234656.2929717254</v>
       </c>
       <c r="AE5" t="n">
-        <v>264185.6324977131</v>
+        <v>321067.0923487818</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.896704534055499e-06</v>
+        <v>4.89702273829546e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.994598765432098</v>
       </c>
       <c r="AH5" t="n">
-        <v>238972.1265190725</v>
+        <v>290424.8996756037</v>
       </c>
     </row>
     <row r="6">
@@ -7151,28 +7151,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>187.2888634652506</v>
+        <v>228.8614594290017</v>
       </c>
       <c r="AB6" t="n">
-        <v>256.2568855945494</v>
+        <v>313.1383454456181</v>
       </c>
       <c r="AC6" t="n">
-        <v>231.8000880922781</v>
+        <v>283.2528612488092</v>
       </c>
       <c r="AD6" t="n">
-        <v>187288.8634652506</v>
+        <v>228861.4594290017</v>
       </c>
       <c r="AE6" t="n">
-        <v>256256.8855945494</v>
+        <v>313138.3454456181</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.984410251871742e-06</v>
+        <v>5.04529360588835e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.790123456790123</v>
       </c>
       <c r="AH6" t="n">
-        <v>231800.0880922781</v>
+        <v>283252.8612488092</v>
       </c>
     </row>
     <row r="7">
@@ -7257,28 +7257,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>183.2938382604319</v>
+        <v>224.866434224183</v>
       </c>
       <c r="AB7" t="n">
-        <v>250.7907158612462</v>
+        <v>307.6721757123148</v>
       </c>
       <c r="AC7" t="n">
-        <v>226.8556019265021</v>
+        <v>278.3083750830333</v>
       </c>
       <c r="AD7" t="n">
-        <v>183293.8382604319</v>
+        <v>224866.434224183</v>
       </c>
       <c r="AE7" t="n">
-        <v>250790.7158612462</v>
+        <v>307672.1757123148</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.045699217555308e-06</v>
+        <v>5.148905643302064e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.651234567901234</v>
       </c>
       <c r="AH7" t="n">
-        <v>226855.6019265021</v>
+        <v>278308.3750830333</v>
       </c>
     </row>
     <row r="8">
@@ -7363,28 +7363,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>181.0069204910481</v>
+        <v>212.3357139593618</v>
       </c>
       <c r="AB8" t="n">
-        <v>247.6616540774855</v>
+        <v>290.5270914296328</v>
       </c>
       <c r="AC8" t="n">
-        <v>224.0251734077167</v>
+        <v>262.799593581008</v>
       </c>
       <c r="AD8" t="n">
-        <v>181006.9204910481</v>
+        <v>212335.7139593618</v>
       </c>
       <c r="AE8" t="n">
-        <v>247661.6540774855</v>
+        <v>290527.0914296329</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.08036135753059e-06</v>
+        <v>5.207503710733984e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.577932098765433</v>
       </c>
       <c r="AH8" t="n">
-        <v>224025.1734077168</v>
+        <v>262799.593581008</v>
       </c>
     </row>
     <row r="9">
@@ -7469,28 +7469,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>178.7511082413687</v>
+        <v>210.0799017096824</v>
       </c>
       <c r="AB9" t="n">
-        <v>244.5751522380629</v>
+        <v>287.4405895902104</v>
       </c>
       <c r="AC9" t="n">
-        <v>221.2332429719152</v>
+        <v>260.0076631452065</v>
       </c>
       <c r="AD9" t="n">
-        <v>178751.1082413687</v>
+        <v>210079.9017096824</v>
       </c>
       <c r="AE9" t="n">
-        <v>244575.1522380629</v>
+        <v>287440.5895902104</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.115128534293674e-06</v>
+        <v>5.266279348067214e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.50462962962963</v>
       </c>
       <c r="AH9" t="n">
-        <v>221233.2429719153</v>
+        <v>260007.6631452065</v>
       </c>
     </row>
     <row r="10">
@@ -7575,28 +7575,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>176.8204037219033</v>
+        <v>207.9786049896248</v>
       </c>
       <c r="AB10" t="n">
-        <v>241.9334771378597</v>
+        <v>284.5655027151602</v>
       </c>
       <c r="AC10" t="n">
-        <v>218.8436856356603</v>
+        <v>257.4069705263005</v>
       </c>
       <c r="AD10" t="n">
-        <v>176820.4037219033</v>
+        <v>207978.6049896248</v>
       </c>
       <c r="AE10" t="n">
-        <v>241933.4771378597</v>
+        <v>284565.5027151602</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.142753209486096e-06</v>
+        <v>5.312980232111441e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.44675925925926</v>
       </c>
       <c r="AH10" t="n">
-        <v>218843.6856356603</v>
+        <v>257406.9705263005</v>
       </c>
     </row>
     <row r="11">
@@ -7681,28 +7681,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>175.5340310326761</v>
+        <v>206.6922323003976</v>
       </c>
       <c r="AB11" t="n">
-        <v>240.1734052737022</v>
+        <v>282.8054308510027</v>
       </c>
       <c r="AC11" t="n">
-        <v>217.251592559941</v>
+        <v>255.8148774505812</v>
       </c>
       <c r="AD11" t="n">
-        <v>175534.0310326761</v>
+        <v>206692.2323003976</v>
       </c>
       <c r="AE11" t="n">
-        <v>240173.4052737022</v>
+        <v>282805.4308510027</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.156302955112797e-06</v>
+        <v>5.335886749380283e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.419753086419753</v>
       </c>
       <c r="AH11" t="n">
-        <v>217251.592559941</v>
+        <v>255814.8774505812</v>
       </c>
     </row>
     <row r="12">
@@ -7787,28 +7787,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>173.9510737710451</v>
+        <v>205.1092750387666</v>
       </c>
       <c r="AB12" t="n">
-        <v>238.007533313194</v>
+        <v>280.6395588904945</v>
       </c>
       <c r="AC12" t="n">
-        <v>215.2924283795226</v>
+        <v>253.8557132701629</v>
       </c>
       <c r="AD12" t="n">
-        <v>173951.0737710451</v>
+        <v>205109.2750387666</v>
       </c>
       <c r="AE12" t="n">
-        <v>238007.533313194</v>
+        <v>280639.5588904945</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.182142004912553e-06</v>
+        <v>5.379568945102259e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.365740740740741</v>
       </c>
       <c r="AH12" t="n">
-        <v>215292.4283795226</v>
+        <v>253855.7132701628</v>
       </c>
     </row>
     <row r="13">
@@ -7893,28 +7893,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>172.6403791427631</v>
+        <v>203.7985804104846</v>
       </c>
       <c r="AB13" t="n">
-        <v>236.2141830990135</v>
+        <v>278.846208676314</v>
       </c>
       <c r="AC13" t="n">
-        <v>213.6702329928001</v>
+        <v>252.2335178834403</v>
       </c>
       <c r="AD13" t="n">
-        <v>172640.3791427631</v>
+        <v>203798.5804104846</v>
       </c>
       <c r="AE13" t="n">
-        <v>236214.1830990135</v>
+        <v>278846.208676314</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.198055078264841e-06</v>
+        <v>5.406470785150551e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.334876543209877</v>
       </c>
       <c r="AH13" t="n">
-        <v>213670.2329928001</v>
+        <v>252233.5178834403</v>
       </c>
     </row>
     <row r="14">
@@ -7999,28 +7999,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>171.5748594360885</v>
+        <v>202.73306070381</v>
       </c>
       <c r="AB14" t="n">
-        <v>234.7562920289303</v>
+        <v>277.3883176062307</v>
       </c>
       <c r="AC14" t="n">
-        <v>212.3514810002822</v>
+        <v>250.9147658909224</v>
       </c>
       <c r="AD14" t="n">
-        <v>171574.8594360885</v>
+        <v>202733.06070381</v>
       </c>
       <c r="AE14" t="n">
-        <v>234756.2920289303</v>
+        <v>277388.3176062307</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.210186827256189e-06</v>
+        <v>5.426980108751722e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.311728395061729</v>
       </c>
       <c r="AH14" t="n">
-        <v>212351.4810002822</v>
+        <v>250914.7658909224</v>
       </c>
     </row>
     <row r="15">
@@ -8105,28 +8105,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>170.5199947378759</v>
+        <v>201.6781960055974</v>
       </c>
       <c r="AB15" t="n">
-        <v>233.3129796114905</v>
+        <v>275.945005188791</v>
       </c>
       <c r="AC15" t="n">
-        <v>211.0459162942607</v>
+        <v>249.6092011849009</v>
       </c>
       <c r="AD15" t="n">
-        <v>170519.9947378759</v>
+        <v>201678.1960055974</v>
       </c>
       <c r="AE15" t="n">
-        <v>233312.9796114905</v>
+        <v>275945.005188791</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.220900579612185e-06</v>
+        <v>5.445092238685226e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.292438271604938</v>
       </c>
       <c r="AH15" t="n">
-        <v>211045.9162942607</v>
+        <v>249609.2011849009</v>
       </c>
     </row>
     <row r="16">
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>170.3175572315112</v>
+        <v>201.4757584992328</v>
       </c>
       <c r="AB16" t="n">
-        <v>233.03599568437</v>
+        <v>275.6680212616705</v>
       </c>
       <c r="AC16" t="n">
-        <v>210.7953673243951</v>
+        <v>249.3586522150353</v>
       </c>
       <c r="AD16" t="n">
-        <v>170317.5572315113</v>
+        <v>201475.7584992328</v>
       </c>
       <c r="AE16" t="n">
-        <v>233035.99568437</v>
+        <v>275668.0212616705</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.219745174946343e-06</v>
+        <v>5.443138969770828e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.292438271604938</v>
       </c>
       <c r="AH16" t="n">
-        <v>210795.3673243951</v>
+        <v>249358.6522150353</v>
       </c>
     </row>
     <row r="17">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>168.9765333368368</v>
+        <v>200.1347346045583</v>
       </c>
       <c r="AB17" t="n">
-        <v>231.2011476298785</v>
+        <v>273.833173207179</v>
       </c>
       <c r="AC17" t="n">
-        <v>209.1356345929983</v>
+        <v>247.6989194836385</v>
       </c>
       <c r="AD17" t="n">
-        <v>168976.5333368368</v>
+        <v>200134.7346045583</v>
       </c>
       <c r="AE17" t="n">
-        <v>231201.1476298785</v>
+        <v>273833.1732071789</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.236761134570572e-06</v>
+        <v>5.471905293782861e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.261574074074074</v>
       </c>
       <c r="AH17" t="n">
-        <v>209135.6345929983</v>
+        <v>247698.9194836385</v>
       </c>
     </row>
     <row r="18">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>168.5417699530092</v>
+        <v>199.6999712207307</v>
       </c>
       <c r="AB18" t="n">
-        <v>230.6062851877191</v>
+        <v>273.2383107650196</v>
       </c>
       <c r="AC18" t="n">
-        <v>208.5975449874237</v>
+        <v>247.1608298780639</v>
       </c>
       <c r="AD18" t="n">
-        <v>168541.7699530092</v>
+        <v>199699.9712207307</v>
       </c>
       <c r="AE18" t="n">
-        <v>230606.2851877191</v>
+        <v>273238.3107650196</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.235238101147415e-06</v>
+        <v>5.469330530213882e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.261574074074074</v>
       </c>
       <c r="AH18" t="n">
-        <v>208597.5449874237</v>
+        <v>247160.8298780639</v>
       </c>
     </row>
     <row r="19">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>167.4609759108818</v>
+        <v>198.6191771786033</v>
       </c>
       <c r="AB19" t="n">
-        <v>229.1274950980132</v>
+        <v>271.7595206753136</v>
       </c>
       <c r="AC19" t="n">
-        <v>207.2598885483839</v>
+        <v>245.8231734390241</v>
       </c>
       <c r="AD19" t="n">
-        <v>167460.9759108818</v>
+        <v>198619.1771786033</v>
       </c>
       <c r="AE19" t="n">
-        <v>229127.4950980132</v>
+        <v>271759.5206753137</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.248735328380215e-06</v>
+        <v>5.49214826253207e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH19" t="n">
-        <v>207259.888548384</v>
+        <v>245823.1734390241</v>
       </c>
     </row>
     <row r="20">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>166.8604326424965</v>
+        <v>198.018633910218</v>
       </c>
       <c r="AB20" t="n">
-        <v>228.3058053041097</v>
+        <v>270.9378308814102</v>
       </c>
       <c r="AC20" t="n">
-        <v>206.5166196751615</v>
+        <v>245.0799045658017</v>
       </c>
       <c r="AD20" t="n">
-        <v>166860.4326424965</v>
+        <v>198018.633910218</v>
       </c>
       <c r="AE20" t="n">
-        <v>228305.8053041097</v>
+        <v>270937.8308814102</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.249785696258253e-06</v>
+        <v>5.493923961545158e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.234567901234568</v>
       </c>
       <c r="AH20" t="n">
-        <v>206516.6196751615</v>
+        <v>245079.9045658017</v>
       </c>
     </row>
     <row r="21">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>165.7106519140281</v>
+        <v>196.8688531817496</v>
       </c>
       <c r="AB21" t="n">
-        <v>226.7326245866742</v>
+        <v>269.3646501639747</v>
       </c>
       <c r="AC21" t="n">
-        <v>205.0935811174245</v>
+        <v>243.6568660080647</v>
       </c>
       <c r="AD21" t="n">
-        <v>165710.6519140281</v>
+        <v>196868.8531817496</v>
       </c>
       <c r="AE21" t="n">
-        <v>226732.6245866742</v>
+        <v>269364.6501639747</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.260026783069132e-06</v>
+        <v>5.511237026922771e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH21" t="n">
-        <v>205093.5811174245</v>
+        <v>243656.8660080647</v>
       </c>
     </row>
     <row r="22">
@@ -8847,28 +8847,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>165.5719293018749</v>
+        <v>196.7301305695964</v>
       </c>
       <c r="AB22" t="n">
-        <v>226.5428181887167</v>
+        <v>269.1748437660171</v>
       </c>
       <c r="AC22" t="n">
-        <v>204.921889575693</v>
+        <v>243.4851744663332</v>
       </c>
       <c r="AD22" t="n">
-        <v>165571.9293018749</v>
+        <v>196730.1305695964</v>
       </c>
       <c r="AE22" t="n">
-        <v>226542.8181887167</v>
+        <v>269174.8437660171</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.262495147582524e-06</v>
+        <v>5.51540991960353e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.211419753086421</v>
       </c>
       <c r="AH22" t="n">
-        <v>204921.889575693</v>
+        <v>243485.1744663332</v>
       </c>
     </row>
     <row r="23">
@@ -8953,28 +8953,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>164.8277316770344</v>
+        <v>195.9859329447559</v>
       </c>
       <c r="AB23" t="n">
-        <v>225.5245741667282</v>
+        <v>268.1565997440288</v>
       </c>
       <c r="AC23" t="n">
-        <v>204.0008253340484</v>
+        <v>242.5641102246886</v>
       </c>
       <c r="AD23" t="n">
-        <v>164827.7316770344</v>
+        <v>195985.9329447559</v>
       </c>
       <c r="AE23" t="n">
-        <v>225524.5741667282</v>
+        <v>268156.5997440288</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.265908843186149e-06</v>
+        <v>5.521180941396067e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.203703703703703</v>
       </c>
       <c r="AH23" t="n">
-        <v>204000.8253340484</v>
+        <v>242564.1102246886</v>
       </c>
     </row>
     <row r="24">
@@ -9059,28 +9059,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>163.933010368076</v>
+        <v>195.0912116357975</v>
       </c>
       <c r="AB24" t="n">
-        <v>224.3003769994937</v>
+        <v>266.9324025767942</v>
       </c>
       <c r="AC24" t="n">
-        <v>202.8934638262828</v>
+        <v>241.456748716923</v>
       </c>
       <c r="AD24" t="n">
-        <v>163933.010368076</v>
+        <v>195091.2116357975</v>
       </c>
       <c r="AE24" t="n">
-        <v>224300.3769994937</v>
+        <v>266932.4025767942</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.262915294733739e-06</v>
+        <v>5.516120199208765e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.211419753086421</v>
       </c>
       <c r="AH24" t="n">
-        <v>202893.4638262828</v>
+        <v>241456.748716923</v>
       </c>
     </row>
     <row r="25">
@@ -9165,28 +9165,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>163.2997119273893</v>
+        <v>194.4579131951108</v>
       </c>
       <c r="AB25" t="n">
-        <v>223.4338701337912</v>
+        <v>266.0658957110916</v>
       </c>
       <c r="AC25" t="n">
-        <v>202.1096551596926</v>
+        <v>240.6729400503328</v>
       </c>
       <c r="AD25" t="n">
-        <v>163299.7119273893</v>
+        <v>194457.9131951108</v>
       </c>
       <c r="AE25" t="n">
-        <v>223433.8701337912</v>
+        <v>266065.8957110916</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.276675113936047e-06</v>
+        <v>5.539381856280224e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.184413580246915</v>
       </c>
       <c r="AH25" t="n">
-        <v>202109.6551596926</v>
+        <v>240672.9400503328</v>
       </c>
     </row>
     <row r="26">
@@ -9271,28 +9271,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>163.0241356117505</v>
+        <v>194.182336879472</v>
       </c>
       <c r="AB26" t="n">
-        <v>223.0568144611653</v>
+        <v>265.6888400384658</v>
       </c>
       <c r="AC26" t="n">
-        <v>201.7685851512611</v>
+        <v>240.3318700419014</v>
       </c>
       <c r="AD26" t="n">
-        <v>163024.1356117505</v>
+        <v>194182.336879472</v>
       </c>
       <c r="AE26" t="n">
-        <v>223056.8144611653</v>
+        <v>265688.8400384658</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.276254966784832e-06</v>
+        <v>5.538671576674989e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.184413580246915</v>
       </c>
       <c r="AH26" t="n">
-        <v>201768.5851512611</v>
+        <v>240331.8700419014</v>
       </c>
     </row>
     <row r="27">
@@ -9377,28 +9377,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>162.8532038409105</v>
+        <v>194.011405108632</v>
       </c>
       <c r="AB27" t="n">
-        <v>222.8229380713247</v>
+        <v>265.4549636486252</v>
       </c>
       <c r="AC27" t="n">
-        <v>201.5570295958192</v>
+        <v>240.1203144864594</v>
       </c>
       <c r="AD27" t="n">
-        <v>162853.2038409105</v>
+        <v>194011.405108632</v>
       </c>
       <c r="AE27" t="n">
-        <v>222822.9380713247</v>
+        <v>265454.9636486252</v>
       </c>
       <c r="AF27" t="n">
-        <v>3.276990224299459e-06</v>
+        <v>5.539914565984151e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>7</v>
+        <v>6.184413580246915</v>
       </c>
       <c r="AH27" t="n">
-        <v>201557.0295958192</v>
+        <v>240120.3144864594</v>
       </c>
     </row>
     <row r="28">
@@ -9483,28 +9483,28 @@
         <v>10</v>
       </c>
       <c r="AA28" t="n">
-        <v>163.029782665692</v>
+        <v>194.1879839334135</v>
       </c>
       <c r="AB28" t="n">
-        <v>223.0645410094986</v>
+        <v>265.6965665867991</v>
       </c>
       <c r="AC28" t="n">
-        <v>201.7755742886657</v>
+        <v>240.3388591793059</v>
       </c>
       <c r="AD28" t="n">
-        <v>163029.782665692</v>
+        <v>194187.9839334135</v>
       </c>
       <c r="AE28" t="n">
-        <v>223064.5410094986</v>
+        <v>265696.566586799</v>
       </c>
       <c r="AF28" t="n">
-        <v>3.276044893209224e-06</v>
+        <v>5.538316436872371e-06</v>
       </c>
       <c r="AG28" t="n">
-        <v>7</v>
+        <v>6.184413580246915</v>
       </c>
       <c r="AH28" t="n">
-        <v>201775.5742886657</v>
+        <v>240338.8591793059</v>
       </c>
     </row>
   </sheetData>
@@ -9780,28 +9780,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>293.1854666099771</v>
+        <v>343.6383058292778</v>
       </c>
       <c r="AB2" t="n">
-        <v>401.1492898456923</v>
+        <v>470.1810902877152</v>
       </c>
       <c r="AC2" t="n">
-        <v>362.864164639383</v>
+        <v>425.3076669339597</v>
       </c>
       <c r="AD2" t="n">
-        <v>293185.4666099771</v>
+        <v>343638.3058292778</v>
       </c>
       <c r="AE2" t="n">
-        <v>401149.2898456923</v>
+        <v>470181.0902877152</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.1234702161353e-06</v>
+        <v>3.677406624961296e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.868827160493828</v>
       </c>
       <c r="AH2" t="n">
-        <v>362864.164639383</v>
+        <v>425307.6669339597</v>
       </c>
     </row>
     <row r="3">
@@ -9886,28 +9886,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>205.3663555619282</v>
+        <v>245.7286269373682</v>
       </c>
       <c r="AB3" t="n">
-        <v>280.9913078038765</v>
+        <v>336.2167481574663</v>
       </c>
       <c r="AC3" t="n">
-        <v>254.1738917609344</v>
+        <v>304.1286935965875</v>
       </c>
       <c r="AD3" t="n">
-        <v>205366.3555619282</v>
+        <v>245728.6269373682</v>
       </c>
       <c r="AE3" t="n">
-        <v>280991.3078038765</v>
+        <v>336216.7481574663</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.758202275367965e-06</v>
+        <v>4.776629897301653e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.600308641975308</v>
       </c>
       <c r="AH3" t="n">
-        <v>254173.8917609344</v>
+        <v>304128.6935965875</v>
       </c>
     </row>
     <row r="4">
@@ -9992,28 +9992,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>189.5319654700292</v>
+        <v>219.8037585101603</v>
       </c>
       <c r="AB4" t="n">
-        <v>259.3259967161624</v>
+        <v>300.7451994509031</v>
       </c>
       <c r="AC4" t="n">
-        <v>234.5762875559698</v>
+        <v>272.0424997139362</v>
       </c>
       <c r="AD4" t="n">
-        <v>189531.9654700292</v>
+        <v>219803.7585101603</v>
       </c>
       <c r="AE4" t="n">
-        <v>259325.9967161624</v>
+        <v>300745.1994509031</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.993612188288888e-06</v>
+        <v>5.184310667570484e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.002314814814814</v>
       </c>
       <c r="AH4" t="n">
-        <v>234576.2875559698</v>
+        <v>272042.4997139362</v>
       </c>
     </row>
     <row r="5">
@@ -10098,28 +10098,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>171.8110308408228</v>
+        <v>212.0879613616912</v>
       </c>
       <c r="AB5" t="n">
-        <v>235.0794321640346</v>
+        <v>290.1881053954269</v>
       </c>
       <c r="AC5" t="n">
-        <v>212.6437810944224</v>
+        <v>262.4929598981367</v>
       </c>
       <c r="AD5" t="n">
-        <v>171811.0308408228</v>
+        <v>212087.9613616912</v>
       </c>
       <c r="AE5" t="n">
-        <v>235079.4321640346</v>
+        <v>290188.1053954269</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.120960638758918e-06</v>
+        <v>5.404851568911389e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.716820987654321</v>
       </c>
       <c r="AH5" t="n">
-        <v>212643.7810944224</v>
+        <v>262492.9598981367</v>
       </c>
     </row>
     <row r="6">
@@ -10204,28 +10204,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>167.1835615744413</v>
+        <v>197.540605960593</v>
       </c>
       <c r="AB6" t="n">
-        <v>228.7479245642388</v>
+        <v>270.2837719516288</v>
       </c>
       <c r="AC6" t="n">
-        <v>206.9165436936223</v>
+        <v>244.4882681023009</v>
       </c>
       <c r="AD6" t="n">
-        <v>167183.5615744414</v>
+        <v>197540.605960593</v>
       </c>
       <c r="AE6" t="n">
-        <v>228747.9245642388</v>
+        <v>270283.7719516288</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.201368363458425e-06</v>
+        <v>5.544100943478171e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.547067901234567</v>
       </c>
       <c r="AH6" t="n">
-        <v>206916.5436936223</v>
+        <v>244488.2681023009</v>
       </c>
     </row>
     <row r="7">
@@ -10310,28 +10310,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>164.1362461398262</v>
+        <v>194.3226983253856</v>
       </c>
       <c r="AB7" t="n">
-        <v>224.5784531485316</v>
+        <v>265.8808887610747</v>
       </c>
       <c r="AC7" t="n">
-        <v>203.1450007779389</v>
+        <v>240.5055899039666</v>
       </c>
       <c r="AD7" t="n">
-        <v>164136.2461398262</v>
+        <v>194322.6983253856</v>
       </c>
       <c r="AE7" t="n">
-        <v>224578.4531485316</v>
+        <v>265880.8887610747</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.252166486832776e-06</v>
+        <v>5.632072676734889e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.44675925925926</v>
       </c>
       <c r="AH7" t="n">
-        <v>203145.0007779389</v>
+        <v>240505.5899039666</v>
       </c>
     </row>
     <row r="8">
@@ -10416,28 +10416,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>161.9438993895725</v>
+        <v>192.1303515751319</v>
       </c>
       <c r="AB8" t="n">
-        <v>221.5787876053235</v>
+        <v>262.8812232178666</v>
       </c>
       <c r="AC8" t="n">
-        <v>200.4316191041167</v>
+        <v>237.7922082301443</v>
       </c>
       <c r="AD8" t="n">
-        <v>161943.8993895725</v>
+        <v>192130.3515751319</v>
       </c>
       <c r="AE8" t="n">
-        <v>221578.7876053235</v>
+        <v>262881.2232178667</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.287806667510395e-06</v>
+        <v>5.693794021137463e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.373456790123457</v>
       </c>
       <c r="AH8" t="n">
-        <v>200431.6191041167</v>
+        <v>237792.2082301443</v>
       </c>
     </row>
     <row r="9">
@@ -10522,28 +10522,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>160.3728269128538</v>
+        <v>190.5592790984132</v>
       </c>
       <c r="AB9" t="n">
-        <v>219.4291769318521</v>
+        <v>260.7316125443952</v>
       </c>
       <c r="AC9" t="n">
-        <v>198.4871642563231</v>
+        <v>235.8477533823507</v>
       </c>
       <c r="AD9" t="n">
-        <v>160372.8269128538</v>
+        <v>190559.2790984132</v>
       </c>
       <c r="AE9" t="n">
-        <v>219429.1769318521</v>
+        <v>260731.6125443952</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.309212507734454e-06</v>
+        <v>5.730864462745107e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.334876543209877</v>
       </c>
       <c r="AH9" t="n">
-        <v>198487.1642563231</v>
+        <v>235847.7533823507</v>
       </c>
     </row>
     <row r="10">
@@ -10628,28 +10628,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>158.6150427024098</v>
+        <v>188.8014948879692</v>
       </c>
       <c r="AB10" t="n">
-        <v>217.0240990271575</v>
+        <v>258.3265346397006</v>
       </c>
       <c r="AC10" t="n">
-        <v>196.3116236113038</v>
+        <v>233.6722127373314</v>
       </c>
       <c r="AD10" t="n">
-        <v>158615.0427024098</v>
+        <v>188801.4948879692</v>
       </c>
       <c r="AE10" t="n">
-        <v>217024.0990271575</v>
+        <v>258326.5346397006</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.335779654611521e-06</v>
+        <v>5.776873208801293e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>196311.6236113038</v>
+        <v>233672.2127373314</v>
       </c>
     </row>
     <row r="11">
@@ -10734,28 +10734,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>156.7454989729078</v>
+        <v>186.9319511584672</v>
       </c>
       <c r="AB11" t="n">
-        <v>214.4661068180059</v>
+        <v>255.768542430549</v>
       </c>
       <c r="AC11" t="n">
-        <v>193.9977625884282</v>
+        <v>231.3583517144558</v>
       </c>
       <c r="AD11" t="n">
-        <v>156745.4989729078</v>
+        <v>186931.9511584672</v>
       </c>
       <c r="AE11" t="n">
-        <v>214466.1068180059</v>
+        <v>255768.542430549</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.360825574264543e-06</v>
+        <v>5.820247507230542e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH11" t="n">
-        <v>193997.7625884282</v>
+        <v>231358.3517144558</v>
       </c>
     </row>
     <row r="12">
@@ -10840,28 +10840,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>155.5186776314094</v>
+        <v>185.7051298169688</v>
       </c>
       <c r="AB12" t="n">
-        <v>212.7875157350308</v>
+        <v>254.089951347574</v>
       </c>
       <c r="AC12" t="n">
-        <v>192.4793738824943</v>
+        <v>229.8399630085219</v>
       </c>
       <c r="AD12" t="n">
-        <v>155518.6776314094</v>
+        <v>185705.1298169688</v>
       </c>
       <c r="AE12" t="n">
-        <v>212787.5157350308</v>
+        <v>254089.951347574</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.375820528330126e-06</v>
+        <v>5.846215633838942e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.207561728395062</v>
       </c>
       <c r="AH12" t="n">
-        <v>192479.3738824943</v>
+        <v>229839.9630085219</v>
       </c>
     </row>
     <row r="13">
@@ -10946,28 +10946,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>154.4957376332725</v>
+        <v>184.6821898188319</v>
       </c>
       <c r="AB13" t="n">
-        <v>211.3878841006529</v>
+        <v>252.6903197131961</v>
       </c>
       <c r="AC13" t="n">
-        <v>191.2133211269057</v>
+        <v>228.5739102529333</v>
       </c>
       <c r="AD13" t="n">
-        <v>154495.7376332725</v>
+        <v>184682.1898188319</v>
       </c>
       <c r="AE13" t="n">
-        <v>211387.8841006529</v>
+        <v>252690.3197131961</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.38581716437385e-06</v>
+        <v>5.863527718244543e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH13" t="n">
-        <v>191213.3211269057</v>
+        <v>228573.9102529333</v>
       </c>
     </row>
     <row r="14">
@@ -11052,28 +11052,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>153.5720313275129</v>
+        <v>183.7584835130722</v>
       </c>
       <c r="AB14" t="n">
-        <v>210.1240283820671</v>
+        <v>251.4264639946103</v>
       </c>
       <c r="AC14" t="n">
-        <v>190.0700860242687</v>
+        <v>227.4306751502963</v>
       </c>
       <c r="AD14" t="n">
-        <v>153572.0313275129</v>
+        <v>183758.4835130722</v>
       </c>
       <c r="AE14" t="n">
-        <v>210124.0283820671</v>
+        <v>251426.4639946103</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.386143141636144e-06</v>
+        <v>5.864092242736028e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH14" t="n">
-        <v>190070.0860242687</v>
+        <v>227430.6751502963</v>
       </c>
     </row>
     <row r="15">
@@ -11158,28 +11158,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>152.7515107943644</v>
+        <v>182.9379629799238</v>
       </c>
       <c r="AB15" t="n">
-        <v>209.0013559898028</v>
+        <v>250.3037916023459</v>
       </c>
       <c r="AC15" t="n">
-        <v>189.0545599094411</v>
+        <v>226.4151490354687</v>
       </c>
       <c r="AD15" t="n">
-        <v>152751.5107943644</v>
+        <v>182937.9629799238</v>
       </c>
       <c r="AE15" t="n">
-        <v>209001.3559898028</v>
+        <v>250303.7916023459</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.399888516196263e-06</v>
+        <v>5.887896358793731e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.165123456790123</v>
       </c>
       <c r="AH15" t="n">
-        <v>189054.5599094411</v>
+        <v>226415.1490354688</v>
       </c>
     </row>
     <row r="16">
@@ -11264,28 +11264,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>151.3095734413449</v>
+        <v>181.4960256269043</v>
       </c>
       <c r="AB16" t="n">
-        <v>207.0284336896162</v>
+        <v>248.3308693021593</v>
       </c>
       <c r="AC16" t="n">
-        <v>187.2699305445698</v>
+        <v>224.6305196705974</v>
       </c>
       <c r="AD16" t="n">
-        <v>151309.5734413449</v>
+        <v>181496.0256269043</v>
       </c>
       <c r="AE16" t="n">
-        <v>207028.4336896162</v>
+        <v>248330.8693021593</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.412655958969496e-06</v>
+        <v>5.910006901376969e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.141975308641975</v>
       </c>
       <c r="AH16" t="n">
-        <v>187269.9305445698</v>
+        <v>224630.5196705974</v>
       </c>
     </row>
     <row r="17">
@@ -11370,28 +11370,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>150.5873797420703</v>
+        <v>180.7738319276298</v>
       </c>
       <c r="AB17" t="n">
-        <v>206.0402964093318</v>
+        <v>247.342732021875</v>
       </c>
       <c r="AC17" t="n">
-        <v>186.3760996994561</v>
+        <v>223.7366888254837</v>
       </c>
       <c r="AD17" t="n">
-        <v>150587.3797420703</v>
+        <v>180773.8319276298</v>
       </c>
       <c r="AE17" t="n">
-        <v>206040.2964093318</v>
+        <v>247342.732021875</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.411569368095178e-06</v>
+        <v>5.908125153072012e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.141975308641975</v>
       </c>
       <c r="AH17" t="n">
-        <v>186376.0996994561</v>
+        <v>223736.6888254837</v>
       </c>
     </row>
     <row r="18">
@@ -11476,28 +11476,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>149.386516375923</v>
+        <v>179.5729685614824</v>
       </c>
       <c r="AB18" t="n">
-        <v>204.3972221734171</v>
+        <v>245.6996577859603</v>
       </c>
       <c r="AC18" t="n">
-        <v>184.8898381625474</v>
+        <v>222.2504272885751</v>
       </c>
       <c r="AD18" t="n">
-        <v>149386.516375923</v>
+        <v>179572.9685614824</v>
       </c>
       <c r="AE18" t="n">
-        <v>204397.2221734171</v>
+        <v>245699.6577859603</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.425803708548739e-06</v>
+        <v>5.932776055866943e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH18" t="n">
-        <v>184889.8381625474</v>
+        <v>222250.427288575</v>
       </c>
     </row>
     <row r="19">
@@ -11582,28 +11582,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>149.3240059736425</v>
+        <v>179.5104581592019</v>
       </c>
       <c r="AB19" t="n">
-        <v>204.3116926832526</v>
+        <v>245.6141282957958</v>
       </c>
       <c r="AC19" t="n">
-        <v>184.8124714868828</v>
+        <v>222.1730606129104</v>
       </c>
       <c r="AD19" t="n">
-        <v>149324.0059736425</v>
+        <v>179510.4581592019</v>
       </c>
       <c r="AE19" t="n">
-        <v>204311.6926832526</v>
+        <v>245614.1282957958</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.424825776761854e-06</v>
+        <v>5.931082482392482e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH19" t="n">
-        <v>184812.4714868828</v>
+        <v>222173.0606129104</v>
       </c>
     </row>
     <row r="20">
@@ -11688,28 +11688,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>149.5415353635993</v>
+        <v>179.7279875491587</v>
       </c>
       <c r="AB20" t="n">
-        <v>204.6093259913109</v>
+        <v>245.911761603854</v>
       </c>
       <c r="AC20" t="n">
-        <v>185.0816990897511</v>
+        <v>222.4422882157787</v>
       </c>
       <c r="AD20" t="n">
-        <v>149541.5353635993</v>
+        <v>179727.9875491587</v>
       </c>
       <c r="AE20" t="n">
-        <v>204609.3259913109</v>
+        <v>245911.761603854</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.424119492693547e-06</v>
+        <v>5.92985934599426e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.122685185185185</v>
       </c>
       <c r="AH20" t="n">
-        <v>185081.6990897511</v>
+        <v>222442.2882157787</v>
       </c>
     </row>
   </sheetData>
@@ -11985,28 +11985,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>156.983836873799</v>
+        <v>193.2747071240678</v>
       </c>
       <c r="AB2" t="n">
-        <v>214.7922112487312</v>
+        <v>264.4469809653237</v>
       </c>
       <c r="AC2" t="n">
-        <v>194.2927440699756</v>
+        <v>239.2085322557393</v>
       </c>
       <c r="AD2" t="n">
-        <v>156983.836873799</v>
+        <v>193274.7071240678</v>
       </c>
       <c r="AE2" t="n">
-        <v>214792.2112487312</v>
+        <v>264446.9809653237</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.149591200454533e-06</v>
+        <v>5.959704310907086e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.426697530864199</v>
       </c>
       <c r="AH2" t="n">
-        <v>194292.7440699756</v>
+        <v>239208.5322557393</v>
       </c>
     </row>
     <row r="3">
@@ -12091,28 +12091,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>129.256030714028</v>
+        <v>156.6874684067454</v>
       </c>
       <c r="AB3" t="n">
-        <v>176.8538035964774</v>
+        <v>214.3867068372546</v>
       </c>
       <c r="AC3" t="n">
-        <v>159.9751247971513</v>
+        <v>193.9259404304012</v>
       </c>
       <c r="AD3" t="n">
-        <v>129256.030714028</v>
+        <v>156687.4684067454</v>
       </c>
       <c r="AE3" t="n">
-        <v>176853.8035964774</v>
+        <v>214386.7068372546</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.596449644404842e-06</v>
+        <v>6.8052566462043e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.50462962962963</v>
       </c>
       <c r="AH3" t="n">
-        <v>159975.1247971513</v>
+        <v>193925.9404304012</v>
       </c>
     </row>
     <row r="4">
@@ -12197,28 +12197,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>123.5124690069621</v>
+        <v>150.7733144990873</v>
       </c>
       <c r="AB4" t="n">
-        <v>168.9952090808145</v>
+        <v>206.2947005467448</v>
       </c>
       <c r="AC4" t="n">
-        <v>152.8665435124541</v>
+        <v>186.606223863053</v>
       </c>
       <c r="AD4" t="n">
-        <v>123512.4690069621</v>
+        <v>150773.3144990873</v>
       </c>
       <c r="AE4" t="n">
-        <v>168995.2090808145</v>
+        <v>206294.7005467448</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.73982506428579e-06</v>
+        <v>7.076553793535449e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.253858024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>152866.5435124541</v>
+        <v>186606.223863053</v>
       </c>
     </row>
     <row r="5">
@@ -12303,28 +12303,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>119.7862978876859</v>
+        <v>147.0471433798111</v>
       </c>
       <c r="AB5" t="n">
-        <v>163.8968973683555</v>
+        <v>201.1963888342858</v>
       </c>
       <c r="AC5" t="n">
-        <v>148.2548075143051</v>
+        <v>181.9944878649039</v>
       </c>
       <c r="AD5" t="n">
-        <v>119786.2978876859</v>
+        <v>147047.1433798111</v>
       </c>
       <c r="AE5" t="n">
-        <v>163896.8973683555</v>
+        <v>201196.3888342858</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.818332958047241e-06</v>
+        <v>7.225107622623755e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.126543209876544</v>
       </c>
       <c r="AH5" t="n">
-        <v>148254.8075143051</v>
+        <v>181994.4878649039</v>
       </c>
     </row>
     <row r="6">
@@ -12409,28 +12409,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>117.0653404235485</v>
+        <v>144.3261859156736</v>
       </c>
       <c r="AB6" t="n">
-        <v>160.1739633257532</v>
+        <v>197.4734547916835</v>
       </c>
       <c r="AC6" t="n">
-        <v>144.8871850715568</v>
+        <v>178.6268654221556</v>
       </c>
       <c r="AD6" t="n">
-        <v>117065.3404235485</v>
+        <v>144326.1859156736</v>
       </c>
       <c r="AE6" t="n">
-        <v>160173.9633257532</v>
+        <v>197473.4547916835</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.862527749207161e-06</v>
+        <v>7.308733677763038e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.057098765432098</v>
       </c>
       <c r="AH6" t="n">
-        <v>144887.1850715568</v>
+        <v>178626.8654221556</v>
       </c>
     </row>
     <row r="7">
@@ -12515,28 +12515,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>117.0276701447682</v>
+        <v>144.2885156368934</v>
       </c>
       <c r="AB7" t="n">
-        <v>160.1224211884305</v>
+        <v>197.4219126543608</v>
       </c>
       <c r="AC7" t="n">
-        <v>144.8405620434804</v>
+        <v>178.5802423940793</v>
       </c>
       <c r="AD7" t="n">
-        <v>117027.6701447682</v>
+        <v>144288.5156368933</v>
       </c>
       <c r="AE7" t="n">
-        <v>160122.4211884305</v>
+        <v>197421.9126543608</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.870166355086654e-06</v>
+        <v>7.323187563836495e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>144840.5620434804</v>
+        <v>178580.2423940793</v>
       </c>
     </row>
   </sheetData>
@@ -12812,28 +12812,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>201.109820615636</v>
+        <v>239.0110923855048</v>
       </c>
       <c r="AB2" t="n">
-        <v>275.1673289052937</v>
+        <v>327.0255210269027</v>
       </c>
       <c r="AC2" t="n">
-        <v>248.9057452344248</v>
+        <v>295.8146642833938</v>
       </c>
       <c r="AD2" t="n">
-        <v>201109.820615636</v>
+        <v>239011.0923855048</v>
       </c>
       <c r="AE2" t="n">
-        <v>275167.3289052937</v>
+        <v>327025.5210269027</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.741166402034553e-06</v>
+        <v>4.993809872296448e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.163580246913581</v>
       </c>
       <c r="AH2" t="n">
-        <v>248905.7452344248</v>
+        <v>295814.6642833938</v>
       </c>
     </row>
     <row r="3">
@@ -12918,28 +12918,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>151.4911284590049</v>
+        <v>189.3923107203226</v>
       </c>
       <c r="AB3" t="n">
-        <v>207.2768452744205</v>
+        <v>259.1349149264811</v>
       </c>
       <c r="AC3" t="n">
-        <v>187.4946340763683</v>
+        <v>234.4034423441107</v>
       </c>
       <c r="AD3" t="n">
-        <v>151491.1284590049</v>
+        <v>189392.3107203226</v>
       </c>
       <c r="AE3" t="n">
-        <v>207276.8452744205</v>
+        <v>259134.9149264811</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.265690541760359e-06</v>
+        <v>5.949378941462178e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.851851851851852</v>
       </c>
       <c r="AH3" t="n">
-        <v>187494.6340763683</v>
+        <v>234403.4423441107</v>
       </c>
     </row>
     <row r="4">
@@ -13024,28 +13024,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>143.2232590852217</v>
+        <v>171.6279000761181</v>
       </c>
       <c r="AB4" t="n">
-        <v>195.9643816445621</v>
+        <v>234.8288645726066</v>
       </c>
       <c r="AC4" t="n">
-        <v>177.2618160981976</v>
+        <v>212.4171273222463</v>
       </c>
       <c r="AD4" t="n">
-        <v>143223.2590852217</v>
+        <v>171627.9000761181</v>
       </c>
       <c r="AE4" t="n">
-        <v>195964.3816445621</v>
+        <v>234828.8645726066</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.445364998291821e-06</v>
+        <v>6.27670678050192e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.493055555555554</v>
       </c>
       <c r="AH4" t="n">
-        <v>177261.8160981977</v>
+        <v>212417.1273222463</v>
       </c>
     </row>
     <row r="5">
@@ -13130,28 +13130,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>138.721107439065</v>
+        <v>167.1257484299614</v>
       </c>
       <c r="AB5" t="n">
-        <v>189.804339141381</v>
+        <v>228.6688220694254</v>
       </c>
       <c r="AC5" t="n">
-        <v>171.6896794058442</v>
+        <v>206.8449906298928</v>
       </c>
       <c r="AD5" t="n">
-        <v>138721.1074390649</v>
+        <v>167125.7484299614</v>
       </c>
       <c r="AE5" t="n">
-        <v>189804.339141381</v>
+        <v>228668.8220694254</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.542219853813946e-06</v>
+        <v>6.453155292831284e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.315586419753087</v>
       </c>
       <c r="AH5" t="n">
-        <v>171689.6794058442</v>
+        <v>206844.9906298928</v>
       </c>
     </row>
     <row r="6">
@@ -13236,28 +13236,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>135.8837130498826</v>
+        <v>164.288354040779</v>
       </c>
       <c r="AB6" t="n">
-        <v>185.9220909610977</v>
+        <v>224.7865738891421</v>
       </c>
       <c r="AC6" t="n">
-        <v>168.1779475431163</v>
+        <v>203.333258767165</v>
       </c>
       <c r="AD6" t="n">
-        <v>135883.7130498826</v>
+        <v>164288.354040779</v>
       </c>
       <c r="AE6" t="n">
-        <v>185922.0909610977</v>
+        <v>224786.5738891421</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.596040995086121e-06</v>
+        <v>6.551205723634668e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.222993827160494</v>
       </c>
       <c r="AH6" t="n">
-        <v>168177.9475431163</v>
+        <v>203333.258767165</v>
       </c>
     </row>
     <row r="7">
@@ -13342,28 +13342,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>133.1339642478077</v>
+        <v>161.5386052387041</v>
       </c>
       <c r="AB7" t="n">
-        <v>182.1597633397452</v>
+        <v>221.0242462677896</v>
       </c>
       <c r="AC7" t="n">
-        <v>164.7746911894845</v>
+        <v>199.9300024135332</v>
       </c>
       <c r="AD7" t="n">
-        <v>133133.9642478077</v>
+        <v>161538.6052387041</v>
       </c>
       <c r="AE7" t="n">
-        <v>182159.7633397452</v>
+        <v>221024.2462677896</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.645512367397721e-06</v>
+        <v>6.641331820052002e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.138117283950617</v>
       </c>
       <c r="AH7" t="n">
-        <v>164774.6911894846</v>
+        <v>199930.0024135332</v>
       </c>
     </row>
     <row r="8">
@@ -13448,28 +13448,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>131.3703229526851</v>
+        <v>159.7749639435815</v>
       </c>
       <c r="AB8" t="n">
-        <v>179.746671513397</v>
+        <v>218.6111544414415</v>
       </c>
       <c r="AC8" t="n">
-        <v>162.5919014602466</v>
+        <v>197.7472126842952</v>
       </c>
       <c r="AD8" t="n">
-        <v>131370.3229526851</v>
+        <v>159774.9639435815</v>
       </c>
       <c r="AE8" t="n">
-        <v>179746.671513397</v>
+        <v>218611.1544414415</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.671610981161168e-06</v>
+        <v>6.688877826368298e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.09567901234568</v>
       </c>
       <c r="AH8" t="n">
-        <v>162591.9014602466</v>
+        <v>197747.2126842953</v>
       </c>
     </row>
     <row r="9">
@@ -13554,28 +13554,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>129.319090522177</v>
+        <v>157.7237315130734</v>
       </c>
       <c r="AB9" t="n">
-        <v>176.9400848079891</v>
+        <v>215.8045677360336</v>
       </c>
       <c r="AC9" t="n">
-        <v>160.0531714509328</v>
+        <v>195.2084826749815</v>
       </c>
       <c r="AD9" t="n">
-        <v>129319.090522177</v>
+        <v>157723.7315130734</v>
       </c>
       <c r="AE9" t="n">
-        <v>176940.0848079891</v>
+        <v>215804.5677360336</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.694461767434052e-06</v>
+        <v>6.730506996343009e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.057098765432098</v>
       </c>
       <c r="AH9" t="n">
-        <v>160053.1714509328</v>
+        <v>195208.4826749815</v>
       </c>
     </row>
     <row r="10">
@@ -13660,28 +13660,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>128.3969207907747</v>
+        <v>156.8015617816711</v>
       </c>
       <c r="AB10" t="n">
-        <v>175.6783314982279</v>
+        <v>214.5428144262723</v>
       </c>
       <c r="AC10" t="n">
-        <v>158.9118381061729</v>
+        <v>194.0671493302216</v>
       </c>
       <c r="AD10" t="n">
-        <v>128396.9207907747</v>
+        <v>156801.5617816711</v>
       </c>
       <c r="AE10" t="n">
-        <v>175678.3314982279</v>
+        <v>214542.8144262724</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.704379240664162e-06</v>
+        <v>6.748574478743203e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>158911.8381061729</v>
+        <v>194067.1493302216</v>
       </c>
     </row>
     <row r="11">
@@ -13766,28 +13766,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>128.8276183353779</v>
+        <v>157.2322593262743</v>
       </c>
       <c r="AB11" t="n">
-        <v>176.2676308797884</v>
+        <v>215.1321138078328</v>
       </c>
       <c r="AC11" t="n">
-        <v>159.4448955818443</v>
+        <v>194.6002068058929</v>
       </c>
       <c r="AD11" t="n">
-        <v>128827.6183353779</v>
+        <v>157232.2593262743</v>
       </c>
       <c r="AE11" t="n">
-        <v>176267.6308797884</v>
+        <v>215132.1138078328</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.701363400851497e-06</v>
+        <v>6.743080273568875e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.045524691358025</v>
       </c>
       <c r="AH11" t="n">
-        <v>159444.8955818443</v>
+        <v>194600.2068058929</v>
       </c>
     </row>
   </sheetData>
@@ -14063,28 +14063,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>124.7704821275945</v>
+        <v>159.8957411412917</v>
       </c>
       <c r="AB2" t="n">
-        <v>170.7164781320848</v>
+        <v>218.7764071316624</v>
       </c>
       <c r="AC2" t="n">
-        <v>154.4235370612879</v>
+        <v>197.8966938896951</v>
       </c>
       <c r="AD2" t="n">
-        <v>124770.4821275945</v>
+        <v>159895.7411412917</v>
       </c>
       <c r="AE2" t="n">
-        <v>170716.4781320848</v>
+        <v>218776.4071316624</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.506030338377937e-06</v>
+        <v>6.870689818606068e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.929012345679013</v>
       </c>
       <c r="AH2" t="n">
-        <v>154423.5370612879</v>
+        <v>197896.6938896951</v>
       </c>
     </row>
     <row r="3">
@@ -14169,28 +14169,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.9751684774179</v>
+        <v>139.2978670325989</v>
       </c>
       <c r="AB3" t="n">
-        <v>154.577609623409</v>
+        <v>190.5934870620912</v>
       </c>
       <c r="AC3" t="n">
-        <v>139.8249395120309</v>
+        <v>172.4035121565781</v>
       </c>
       <c r="AD3" t="n">
-        <v>112975.1684774179</v>
+        <v>139297.8670325989</v>
       </c>
       <c r="AE3" t="n">
-        <v>154577.6096234091</v>
+        <v>190593.4870620912</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.864037818156993e-06</v>
+        <v>7.572269128795604e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH3" t="n">
-        <v>139824.9395120309</v>
+        <v>172403.5121565781</v>
       </c>
     </row>
     <row r="4">
@@ -14275,28 +14275,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>107.9658796988833</v>
+        <v>134.2885782540643</v>
       </c>
       <c r="AB4" t="n">
-        <v>147.7236797223975</v>
+        <v>183.7395571610796</v>
       </c>
       <c r="AC4" t="n">
-        <v>133.6251390612186</v>
+        <v>166.2037117057659</v>
       </c>
       <c r="AD4" t="n">
-        <v>107965.8796988833</v>
+        <v>134288.5782540643</v>
       </c>
       <c r="AE4" t="n">
-        <v>147723.6797223975</v>
+        <v>183739.5571610796</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.992671177493718e-06</v>
+        <v>7.824349067367046e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.084104938271604</v>
       </c>
       <c r="AH4" t="n">
-        <v>133625.1390612187</v>
+        <v>166203.7117057659</v>
       </c>
     </row>
     <row r="5">
@@ -14381,28 +14381,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>107.9116050322843</v>
+        <v>134.2343035874653</v>
       </c>
       <c r="AB5" t="n">
-        <v>147.6494187291275</v>
+        <v>183.6652961678097</v>
       </c>
       <c r="AC5" t="n">
-        <v>133.5579654329204</v>
+        <v>166.1365380774676</v>
       </c>
       <c r="AD5" t="n">
-        <v>107911.6050322843</v>
+        <v>134234.3035874653</v>
       </c>
       <c r="AE5" t="n">
-        <v>147649.4187291275</v>
+        <v>183665.2961678097</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.998652660184362e-06</v>
+        <v>7.836070846204191e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.076388888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>133557.9654329204</v>
+        <v>166136.5380774676</v>
       </c>
     </row>
   </sheetData>
@@ -14678,28 +14678,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>320.6856262902693</v>
+        <v>371.4789073943292</v>
       </c>
       <c r="AB2" t="n">
-        <v>438.7762215416883</v>
+        <v>508.2738295896746</v>
       </c>
       <c r="AC2" t="n">
-        <v>396.9000347840434</v>
+        <v>459.7648886604356</v>
       </c>
       <c r="AD2" t="n">
-        <v>320685.6262902693</v>
+        <v>371478.9073943292</v>
       </c>
       <c r="AE2" t="n">
-        <v>438776.2215416883</v>
+        <v>508273.8295896746</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.03181688636671e-06</v>
+        <v>3.495702769647005e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.22376543209877</v>
       </c>
       <c r="AH2" t="n">
-        <v>396900.0347840434</v>
+        <v>459764.8886604356</v>
       </c>
     </row>
     <row r="3">
@@ -14784,28 +14784,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>211.556417812073</v>
+        <v>252.2592437721368</v>
       </c>
       <c r="AB3" t="n">
-        <v>289.4608240607932</v>
+        <v>345.1522262212731</v>
       </c>
       <c r="AC3" t="n">
-        <v>261.8350892733345</v>
+        <v>312.2113821750097</v>
       </c>
       <c r="AD3" t="n">
-        <v>211556.417812073</v>
+        <v>252259.2437721368</v>
       </c>
       <c r="AE3" t="n">
-        <v>289460.8240607933</v>
+        <v>345152.2262212731</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.701874420109024e-06</v>
+        <v>4.648524164253281e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.689043209876543</v>
       </c>
       <c r="AH3" t="n">
-        <v>261835.0892733345</v>
+        <v>312211.3821750097</v>
       </c>
     </row>
     <row r="4">
@@ -14890,28 +14890,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>194.8303963877041</v>
+        <v>225.3576053663031</v>
       </c>
       <c r="AB4" t="n">
-        <v>266.5755436479964</v>
+        <v>308.3442177379046</v>
       </c>
       <c r="AC4" t="n">
-        <v>241.1339479034349</v>
+        <v>278.9162783609178</v>
       </c>
       <c r="AD4" t="n">
-        <v>194830.3963877041</v>
+        <v>225357.6053663031</v>
       </c>
       <c r="AE4" t="n">
-        <v>266575.5436479964</v>
+        <v>308344.2177379046</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.940499971699699e-06</v>
+        <v>5.059074941344082e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.064043209876543</v>
       </c>
       <c r="AH4" t="n">
-        <v>241133.9479034349</v>
+        <v>278916.2783609178</v>
       </c>
     </row>
     <row r="5">
@@ -14996,28 +14996,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>176.8929227182606</v>
+        <v>217.5104078237527</v>
       </c>
       <c r="AB5" t="n">
-        <v>242.032700827988</v>
+        <v>297.6073358662703</v>
       </c>
       <c r="AC5" t="n">
-        <v>218.9334395560641</v>
+        <v>269.2041094258005</v>
       </c>
       <c r="AD5" t="n">
-        <v>176892.9227182606</v>
+        <v>217510.4078237527</v>
       </c>
       <c r="AE5" t="n">
-        <v>242032.700827988</v>
+        <v>297607.3358662702</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.065358422543284e-06</v>
+        <v>5.273891559591727e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.774691358024691</v>
       </c>
       <c r="AH5" t="n">
-        <v>218933.4395560641</v>
+        <v>269204.1094258005</v>
       </c>
     </row>
     <row r="6">
@@ -15102,28 +15102,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>172.2160042133793</v>
+        <v>212.8334893188716</v>
       </c>
       <c r="AB6" t="n">
-        <v>235.6335345985304</v>
+        <v>291.2081696368127</v>
       </c>
       <c r="AC6" t="n">
-        <v>213.1450007702577</v>
+        <v>263.4156706399941</v>
       </c>
       <c r="AD6" t="n">
-        <v>172216.0042133793</v>
+        <v>212833.4893188716</v>
       </c>
       <c r="AE6" t="n">
-        <v>235633.5345985304</v>
+        <v>291208.1696368127</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.143859337303935e-06</v>
+        <v>5.408950908192445e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.608796296296296</v>
       </c>
       <c r="AH6" t="n">
-        <v>213145.0007702577</v>
+        <v>263415.6706399941</v>
       </c>
     </row>
     <row r="7">
@@ -15208,28 +15208,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>169.18405065448</v>
+        <v>199.7965109790994</v>
       </c>
       <c r="AB7" t="n">
-        <v>231.4850819788957</v>
+        <v>273.3704007214532</v>
       </c>
       <c r="AC7" t="n">
-        <v>209.3924706462498</v>
+        <v>247.280313354445</v>
       </c>
       <c r="AD7" t="n">
-        <v>169184.05065448</v>
+        <v>199796.5109790994</v>
       </c>
       <c r="AE7" t="n">
-        <v>231485.0819788958</v>
+        <v>273370.4007214532</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.193447363706238e-06</v>
+        <v>5.494266175724175e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.50462962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>209392.4706462498</v>
+        <v>247280.313354445</v>
       </c>
     </row>
     <row r="8">
@@ -15314,28 +15314,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>167.0012053366677</v>
+        <v>197.4430734606949</v>
       </c>
       <c r="AB8" t="n">
-        <v>228.4984167147275</v>
+        <v>270.1503236824381</v>
       </c>
       <c r="AC8" t="n">
-        <v>206.6908485230818</v>
+        <v>244.3675559486259</v>
       </c>
       <c r="AD8" t="n">
-        <v>167001.2053366677</v>
+        <v>197443.0734606949</v>
       </c>
       <c r="AE8" t="n">
-        <v>228498.4167147275</v>
+        <v>270150.3236824381</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.227152146038315e-06</v>
+        <v>5.55225462032229e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.435185185185185</v>
       </c>
       <c r="AH8" t="n">
-        <v>206690.8485230818</v>
+        <v>244367.555948626</v>
       </c>
     </row>
     <row r="9">
@@ -15420,28 +15420,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>164.6365587220401</v>
+        <v>195.0784268460674</v>
       </c>
       <c r="AB9" t="n">
-        <v>225.2630028957497</v>
+        <v>266.9149098634604</v>
       </c>
       <c r="AC9" t="n">
-        <v>203.7642180580544</v>
+        <v>241.4409254835986</v>
       </c>
       <c r="AD9" t="n">
-        <v>164636.5587220401</v>
+        <v>195078.4268460674</v>
       </c>
       <c r="AE9" t="n">
-        <v>225263.0028957496</v>
+        <v>266914.9098634603</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.266671810945254e-06</v>
+        <v>5.62024746111305e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.358024691358025</v>
       </c>
       <c r="AH9" t="n">
-        <v>203764.2180580544</v>
+        <v>241440.9254835985</v>
       </c>
     </row>
     <row r="10">
@@ -15526,28 +15526,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>162.8121181946864</v>
+        <v>193.2539863187136</v>
       </c>
       <c r="AB10" t="n">
-        <v>222.7667228775901</v>
+        <v>264.4186298453008</v>
       </c>
       <c r="AC10" t="n">
-        <v>201.5061795012761</v>
+        <v>239.1828869268203</v>
       </c>
       <c r="AD10" t="n">
-        <v>162812.1181946864</v>
+        <v>193253.9863187136</v>
       </c>
       <c r="AE10" t="n">
-        <v>222766.7228775901</v>
+        <v>264418.6298453007</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.291923476941649e-06</v>
+        <v>5.663692477912594e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.311728395061729</v>
       </c>
       <c r="AH10" t="n">
-        <v>201506.1795012761</v>
+        <v>239182.8869268203</v>
       </c>
     </row>
     <row r="11">
@@ -15632,28 +15632,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>161.8053559432145</v>
+        <v>192.2472240672418</v>
       </c>
       <c r="AB11" t="n">
-        <v>221.3892263499111</v>
+        <v>263.0411333176217</v>
       </c>
       <c r="AC11" t="n">
-        <v>200.2601493088698</v>
+        <v>237.936856734414</v>
       </c>
       <c r="AD11" t="n">
-        <v>161805.3559432145</v>
+        <v>192247.2240672418</v>
       </c>
       <c r="AE11" t="n">
-        <v>221389.2263499111</v>
+        <v>263041.1333176217</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.305868426820257e-06</v>
+        <v>5.687684502115329e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.284722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>200260.1493088698</v>
+        <v>237936.856734414</v>
       </c>
     </row>
     <row r="12">
@@ -15738,28 +15738,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>160.6842737381235</v>
+        <v>191.1261418621508</v>
       </c>
       <c r="AB12" t="n">
-        <v>219.8553122182502</v>
+        <v>261.5072191859608</v>
       </c>
       <c r="AC12" t="n">
-        <v>198.8726297890721</v>
+        <v>236.5493372146163</v>
       </c>
       <c r="AD12" t="n">
-        <v>160684.2737381235</v>
+        <v>191126.1418621508</v>
       </c>
       <c r="AE12" t="n">
-        <v>219855.3122182502</v>
+        <v>261507.2191859608</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.317228984443368e-06</v>
+        <v>5.70723012801022e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.261574074074074</v>
       </c>
       <c r="AH12" t="n">
-        <v>198872.6297890721</v>
+        <v>236549.3372146163</v>
       </c>
     </row>
     <row r="13">
@@ -15844,28 +15844,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>159.5493400710052</v>
+        <v>189.9912081950325</v>
       </c>
       <c r="AB13" t="n">
-        <v>218.30244590516</v>
+        <v>259.9543528728707</v>
       </c>
       <c r="AC13" t="n">
-        <v>197.4679668574413</v>
+        <v>235.1446742829854</v>
       </c>
       <c r="AD13" t="n">
-        <v>159549.3400710053</v>
+        <v>189991.2081950325</v>
       </c>
       <c r="AE13" t="n">
-        <v>218302.44590516</v>
+        <v>259954.3528728707</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.32896643260374e-06</v>
+        <v>5.727424186991672e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH13" t="n">
-        <v>197467.9668574413</v>
+        <v>235144.6742829854</v>
       </c>
     </row>
     <row r="14">
@@ -15950,28 +15950,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>158.3016005535492</v>
+        <v>188.7434686775765</v>
       </c>
       <c r="AB14" t="n">
-        <v>216.595233650995</v>
+        <v>258.2471406187056</v>
       </c>
       <c r="AC14" t="n">
-        <v>195.9236885447258</v>
+        <v>233.6003959702699</v>
       </c>
       <c r="AD14" t="n">
-        <v>158301.6005535492</v>
+        <v>188743.4686775765</v>
       </c>
       <c r="AE14" t="n">
-        <v>216595.233650995</v>
+        <v>258247.1406187056</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.34355748054622e-06</v>
+        <v>5.752527810771367e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.211419753086421</v>
       </c>
       <c r="AH14" t="n">
-        <v>195923.6885447258</v>
+        <v>233600.39597027</v>
       </c>
     </row>
     <row r="15">
@@ -16056,28 +16056,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>156.9891094551755</v>
+        <v>187.4309775792028</v>
       </c>
       <c r="AB15" t="n">
-        <v>214.7994254271804</v>
+        <v>256.451332394891</v>
       </c>
       <c r="AC15" t="n">
-        <v>194.2992697373588</v>
+        <v>231.975977162903</v>
       </c>
       <c r="AD15" t="n">
-        <v>156989.1094551755</v>
+        <v>187430.9775792028</v>
       </c>
       <c r="AE15" t="n">
-        <v>214799.4254271804</v>
+        <v>256451.332394891</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.356102551286434e-06</v>
+        <v>5.774111369224019e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH15" t="n">
-        <v>194299.2697373588</v>
+        <v>231975.9771629029</v>
       </c>
     </row>
     <row r="16">
@@ -16162,28 +16162,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>156.4629816723684</v>
+        <v>186.9048497963956</v>
       </c>
       <c r="AB16" t="n">
-        <v>214.0795541836243</v>
+        <v>255.731461151335</v>
       </c>
       <c r="AC16" t="n">
-        <v>193.6481019949419</v>
+        <v>231.324809420486</v>
       </c>
       <c r="AD16" t="n">
-        <v>156462.9816723684</v>
+        <v>186904.8497963956</v>
       </c>
       <c r="AE16" t="n">
-        <v>214079.5541836243</v>
+        <v>255731.461151335</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.355725660749174e-06</v>
+        <v>5.773462936137458e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH16" t="n">
-        <v>193648.1019949419</v>
+        <v>231324.809420486</v>
       </c>
     </row>
     <row r="17">
@@ -16268,28 +16268,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>155.3756847633106</v>
+        <v>185.8175528873379</v>
       </c>
       <c r="AB17" t="n">
-        <v>212.591866584498</v>
+        <v>254.2437735522086</v>
       </c>
       <c r="AC17" t="n">
-        <v>192.302397212293</v>
+        <v>229.9791046378372</v>
       </c>
       <c r="AD17" t="n">
-        <v>155375.6847633106</v>
+        <v>185817.5528873379</v>
       </c>
       <c r="AE17" t="n">
-        <v>212591.866584498</v>
+        <v>254243.7735522086</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.368916829553262e-06</v>
+        <v>5.796158094167073e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.165123456790123</v>
       </c>
       <c r="AH17" t="n">
-        <v>192302.397212293</v>
+        <v>229979.1046378372</v>
       </c>
     </row>
     <row r="18">
@@ -16374,28 +16374,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>154.3809691163194</v>
+        <v>184.8228372403466</v>
       </c>
       <c r="AB18" t="n">
-        <v>211.2308527525282</v>
+        <v>252.8827597202388</v>
       </c>
       <c r="AC18" t="n">
-        <v>191.071276630251</v>
+        <v>228.7479840557951</v>
       </c>
       <c r="AD18" t="n">
-        <v>154380.9691163194</v>
+        <v>184822.8372403466</v>
       </c>
       <c r="AE18" t="n">
-        <v>211230.8527525282</v>
+        <v>252882.7597202388</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.368970671058584e-06</v>
+        <v>5.796250727465153e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.165123456790123</v>
       </c>
       <c r="AH18" t="n">
-        <v>191071.276630251</v>
+        <v>228747.9840557952</v>
       </c>
     </row>
     <row r="19">
@@ -16480,28 +16480,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>153.5651838861995</v>
+        <v>184.0070520102268</v>
       </c>
       <c r="AB19" t="n">
-        <v>210.1146594107744</v>
+        <v>251.7665663784851</v>
       </c>
       <c r="AC19" t="n">
-        <v>190.0616112144467</v>
+        <v>227.7383186399909</v>
       </c>
       <c r="AD19" t="n">
-        <v>153565.1838861995</v>
+        <v>184007.0520102268</v>
       </c>
       <c r="AE19" t="n">
-        <v>210114.6594107744</v>
+        <v>251766.5663784851</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.38097732674557e-06</v>
+        <v>5.816907952937005e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.141975308641975</v>
       </c>
       <c r="AH19" t="n">
-        <v>190061.6112144467</v>
+        <v>227738.3186399909</v>
       </c>
     </row>
     <row r="20">
@@ -16586,28 +16586,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>153.205976113036</v>
+        <v>183.6478442370633</v>
       </c>
       <c r="AB20" t="n">
-        <v>209.6231754884038</v>
+        <v>251.2750824561144</v>
       </c>
       <c r="AC20" t="n">
-        <v>189.617033827825</v>
+        <v>227.2937412533691</v>
       </c>
       <c r="AD20" t="n">
-        <v>153205.976113036</v>
+        <v>183647.8442370633</v>
       </c>
       <c r="AE20" t="n">
-        <v>209623.1754884038</v>
+        <v>251275.0824561144</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.38232336437864e-06</v>
+        <v>5.819223785389006e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.141975308641975</v>
       </c>
       <c r="AH20" t="n">
-        <v>189617.033827825</v>
+        <v>227293.7412533691</v>
       </c>
     </row>
     <row r="21">
@@ -16692,28 +16692,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>152.1931874989453</v>
+        <v>182.6350556229725</v>
       </c>
       <c r="AB21" t="n">
-        <v>208.2374334255254</v>
+        <v>249.889340393236</v>
       </c>
       <c r="AC21" t="n">
-        <v>188.363545042526</v>
+        <v>226.0402524680702</v>
       </c>
       <c r="AD21" t="n">
-        <v>152193.1874989453</v>
+        <v>182635.0556229725</v>
       </c>
       <c r="AE21" t="n">
-        <v>208237.4334255254</v>
+        <v>249889.340393236</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.384530866096875e-06</v>
+        <v>5.823021750610288e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.138117283950617</v>
       </c>
       <c r="AH21" t="n">
-        <v>188363.545042526</v>
+        <v>226040.2524680702</v>
       </c>
     </row>
     <row r="22">
@@ -16798,28 +16798,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>152.4680814746806</v>
+        <v>182.9099495987078</v>
       </c>
       <c r="AB22" t="n">
-        <v>208.6135554905925</v>
+        <v>250.2654624583032</v>
       </c>
       <c r="AC22" t="n">
-        <v>188.7037705455939</v>
+        <v>226.3804779711381</v>
       </c>
       <c r="AD22" t="n">
-        <v>152468.0814746806</v>
+        <v>182909.9495987078</v>
       </c>
       <c r="AE22" t="n">
-        <v>208613.5554905925</v>
+        <v>250265.4624583032</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.382431047389286e-06</v>
+        <v>5.819409051985166e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.141975308641975</v>
       </c>
       <c r="AH22" t="n">
-        <v>188703.7705455939</v>
+        <v>226380.4779711381</v>
       </c>
     </row>
   </sheetData>
@@ -17095,28 +17095,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.8477074481458</v>
+        <v>147.2322685252588</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.4032118199754</v>
+        <v>201.4496852254323</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.667185990188</v>
+        <v>182.2236100039832</v>
       </c>
       <c r="AD2" t="n">
-        <v>112847.7074481458</v>
+        <v>147232.2685252588</v>
       </c>
       <c r="AE2" t="n">
-        <v>154403.2118199753</v>
+        <v>201449.6852254323</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.716877992074179e-06</v>
+        <v>7.451078035390464e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.689814814814815</v>
       </c>
       <c r="AH2" t="n">
-        <v>139667.185990188</v>
+        <v>182223.6100039832</v>
       </c>
     </row>
     <row r="3">
@@ -17201,28 +17201,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.9626456449217</v>
+        <v>128.7298207476646</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.8780341626623</v>
+        <v>176.133819905754</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.4328323057786</v>
+        <v>159.3238553393668</v>
       </c>
       <c r="AD3" t="n">
-        <v>102962.6456449217</v>
+        <v>128729.8207476646</v>
       </c>
       <c r="AE3" t="n">
-        <v>140878.0341626623</v>
+        <v>176133.819905754</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.04491741128314e-06</v>
+        <v>8.108685661043555e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>127432.8323057786</v>
+        <v>159323.8553393669</v>
       </c>
     </row>
     <row r="4">
@@ -17307,28 +17307,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>102.4233193598865</v>
+        <v>128.1904944626294</v>
       </c>
       <c r="AB4" t="n">
-        <v>140.1401041460812</v>
+        <v>175.3958898891728</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.7653292942884</v>
+        <v>158.6563523278767</v>
       </c>
       <c r="AD4" t="n">
-        <v>102423.3193598865</v>
+        <v>128190.4944626294</v>
       </c>
       <c r="AE4" t="n">
-        <v>140140.1041460812</v>
+        <v>175395.8898891728</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.068242940600296e-06</v>
+        <v>8.155445425429023e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AH4" t="n">
-        <v>126765.3292942884</v>
+        <v>158656.3523278767</v>
       </c>
     </row>
   </sheetData>
@@ -17604,28 +17604,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>239.6982061409428</v>
+        <v>288.6841240079489</v>
       </c>
       <c r="AB2" t="n">
-        <v>327.965660380412</v>
+        <v>394.9903543123772</v>
       </c>
       <c r="AC2" t="n">
-        <v>296.6650780564983</v>
+        <v>357.2930292692472</v>
       </c>
       <c r="AD2" t="n">
-        <v>239698.2061409428</v>
+        <v>288684.1240079489</v>
       </c>
       <c r="AE2" t="n">
-        <v>327965.660380412</v>
+        <v>394990.3543123772</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.404012663506328e-06</v>
+        <v>4.257685061797985e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.981481481481483</v>
       </c>
       <c r="AH2" t="n">
-        <v>296665.0780564983</v>
+        <v>357293.0292692472</v>
       </c>
     </row>
     <row r="3">
@@ -17710,28 +17710,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>182.6823815972568</v>
+        <v>212.1252263387524</v>
       </c>
       <c r="AB3" t="n">
-        <v>249.9540938791264</v>
+        <v>290.2390929810567</v>
       </c>
       <c r="AC3" t="n">
-        <v>226.0988259721493</v>
+        <v>262.5390813001555</v>
       </c>
       <c r="AD3" t="n">
-        <v>182682.3815972568</v>
+        <v>212125.2263387523</v>
       </c>
       <c r="AE3" t="n">
-        <v>249954.0938791264</v>
+        <v>290239.0929810567</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.997864861497775e-06</v>
+        <v>5.309441431756652e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.202932098765434</v>
       </c>
       <c r="AH3" t="n">
-        <v>226098.8259721493</v>
+        <v>262539.0813001555</v>
       </c>
     </row>
     <row r="4">
@@ -17816,28 +17816,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>160.7329558024204</v>
+        <v>199.9046219251081</v>
       </c>
       <c r="AB4" t="n">
-        <v>219.9219211663222</v>
+        <v>273.5183228873004</v>
       </c>
       <c r="AC4" t="n">
-        <v>198.9328816726265</v>
+        <v>247.4141180363939</v>
       </c>
       <c r="AD4" t="n">
-        <v>160732.9558024204</v>
+        <v>199904.6219251081</v>
       </c>
       <c r="AE4" t="n">
-        <v>219921.9211663222</v>
+        <v>273518.3228873005</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.215892414629708e-06</v>
+        <v>5.695584429304865e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.716820987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>198932.8816726265</v>
+        <v>247414.1180363939</v>
       </c>
     </row>
     <row r="5">
@@ -17922,28 +17922,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>155.2172721406258</v>
+        <v>184.5747760275496</v>
       </c>
       <c r="AB5" t="n">
-        <v>212.3751194454691</v>
+        <v>252.5433514252017</v>
       </c>
       <c r="AC5" t="n">
-        <v>192.1063361160064</v>
+        <v>228.4409684120739</v>
       </c>
       <c r="AD5" t="n">
-        <v>155217.2721406258</v>
+        <v>184574.7760275496</v>
       </c>
       <c r="AE5" t="n">
-        <v>212375.1194454691</v>
+        <v>252543.3514252017</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.323198915105682e-06</v>
+        <v>5.885632215261202e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.496913580246914</v>
       </c>
       <c r="AH5" t="n">
-        <v>192106.3361160064</v>
+        <v>228440.9684120739</v>
       </c>
     </row>
     <row r="6">
@@ -18028,28 +18028,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>151.7757478669265</v>
+        <v>181.1332517538504</v>
       </c>
       <c r="AB6" t="n">
-        <v>207.6662741048607</v>
+        <v>247.8345060845934</v>
       </c>
       <c r="AC6" t="n">
-        <v>187.8468963657982</v>
+        <v>224.1815286618657</v>
       </c>
       <c r="AD6" t="n">
-        <v>151775.7478669265</v>
+        <v>181133.2517538504</v>
       </c>
       <c r="AE6" t="n">
-        <v>207666.2741048607</v>
+        <v>247834.5060845934</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.388803097973622e-06</v>
+        <v>6.001822097963772e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.373456790123457</v>
       </c>
       <c r="AH6" t="n">
-        <v>187846.8963657983</v>
+        <v>224181.5286618657</v>
       </c>
     </row>
     <row r="7">
@@ -18134,28 +18134,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>149.0214474071725</v>
+        <v>178.3789512940964</v>
       </c>
       <c r="AB7" t="n">
-        <v>203.8977187046667</v>
+        <v>244.0659506843994</v>
       </c>
       <c r="AC7" t="n">
-        <v>184.4380066037969</v>
+        <v>220.7726388998643</v>
       </c>
       <c r="AD7" t="n">
-        <v>149021.4474071725</v>
+        <v>178378.9512940964</v>
       </c>
       <c r="AE7" t="n">
-        <v>203897.7187046667</v>
+        <v>244065.9506843994</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.437558425002611e-06</v>
+        <v>6.088171404989314e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.280864197530865</v>
       </c>
       <c r="AH7" t="n">
-        <v>184438.0066037969</v>
+        <v>220772.6388998643</v>
       </c>
     </row>
     <row r="8">
@@ -18240,28 +18240,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>147.4954021986914</v>
+        <v>176.8529060856153</v>
       </c>
       <c r="AB8" t="n">
-        <v>201.809716326061</v>
+        <v>241.9779483057936</v>
       </c>
       <c r="AC8" t="n">
-        <v>182.5492802416748</v>
+        <v>218.8839125377422</v>
       </c>
       <c r="AD8" t="n">
-        <v>147495.4021986914</v>
+        <v>176852.9060856153</v>
       </c>
       <c r="AE8" t="n">
-        <v>201809.716326061</v>
+        <v>241977.9483057936</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.457262070369092e-06</v>
+        <v>6.123068025050155e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.246141975308642</v>
       </c>
       <c r="AH8" t="n">
-        <v>182549.2802416748</v>
+        <v>218883.9125377422</v>
       </c>
     </row>
     <row r="9">
@@ -18346,28 +18346,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>145.6827359951612</v>
+        <v>175.040239882085</v>
       </c>
       <c r="AB9" t="n">
-        <v>199.3295464572031</v>
+        <v>239.4977784369357</v>
       </c>
       <c r="AC9" t="n">
-        <v>180.3058143041597</v>
+        <v>216.6404466002271</v>
       </c>
       <c r="AD9" t="n">
-        <v>145682.7359951612</v>
+        <v>175040.239882085</v>
       </c>
       <c r="AE9" t="n">
-        <v>199329.5464572031</v>
+        <v>239497.7784369357</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.48127588815949e-06</v>
+        <v>6.165598280749304e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.203703703703703</v>
       </c>
       <c r="AH9" t="n">
-        <v>180305.8143041597</v>
+        <v>216640.4466002271</v>
       </c>
     </row>
     <row r="10">
@@ -18452,28 +18452,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>143.9890448492404</v>
+        <v>173.3465487361643</v>
       </c>
       <c r="AB10" t="n">
-        <v>197.0121635109756</v>
+        <v>237.1803954907083</v>
       </c>
       <c r="AC10" t="n">
-        <v>178.2095991338521</v>
+        <v>214.5442314299195</v>
       </c>
       <c r="AD10" t="n">
-        <v>143989.0448492404</v>
+        <v>173346.5487361643</v>
       </c>
       <c r="AE10" t="n">
-        <v>197012.1635109756</v>
+        <v>237180.3954907083</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.507920590416434e-06</v>
+        <v>6.212788028331576e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH10" t="n">
-        <v>178209.5991338521</v>
+        <v>214544.2314299195</v>
       </c>
     </row>
     <row r="11">
@@ -18558,28 +18558,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>142.580644316775</v>
+        <v>171.9381482036989</v>
       </c>
       <c r="AB11" t="n">
-        <v>195.0851277682112</v>
+        <v>235.2533597479438</v>
       </c>
       <c r="AC11" t="n">
-        <v>176.4664769777648</v>
+        <v>212.8011092738322</v>
       </c>
       <c r="AD11" t="n">
-        <v>142580.644316775</v>
+        <v>171938.1482036989</v>
       </c>
       <c r="AE11" t="n">
-        <v>195085.1277682112</v>
+        <v>235253.3597479438</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.522082585523592e-06</v>
+        <v>6.237869974000304e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.130401234567902</v>
       </c>
       <c r="AH11" t="n">
-        <v>176466.4769777647</v>
+        <v>212801.1092738322</v>
       </c>
     </row>
     <row r="12">
@@ -18664,28 +18664,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>141.2216677432748</v>
+        <v>170.5791716301987</v>
       </c>
       <c r="AB12" t="n">
-        <v>193.2257160665341</v>
+        <v>233.3939480462667</v>
       </c>
       <c r="AC12" t="n">
-        <v>174.7845249191944</v>
+        <v>211.1191572152618</v>
       </c>
       <c r="AD12" t="n">
-        <v>141221.6677432748</v>
+        <v>170579.1716301987</v>
       </c>
       <c r="AE12" t="n">
-        <v>193225.716066534</v>
+        <v>233393.9480462667</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.533445767368466e-06</v>
+        <v>6.257995013410391e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>174784.5249191944</v>
+        <v>211119.1572152618</v>
       </c>
     </row>
     <row r="13">
@@ -18770,28 +18770,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>140.1317383963389</v>
+        <v>169.4892422832628</v>
       </c>
       <c r="AB13" t="n">
-        <v>191.734426649768</v>
+        <v>231.9026586295006</v>
       </c>
       <c r="AC13" t="n">
-        <v>173.4355620713262</v>
+        <v>209.7701943673936</v>
       </c>
       <c r="AD13" t="n">
-        <v>140131.7383963389</v>
+        <v>169489.2422832628</v>
       </c>
       <c r="AE13" t="n">
-        <v>191734.426649768</v>
+        <v>231902.6586295006</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.543801376438917e-06</v>
+        <v>6.276335566567366e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.09567901234568</v>
       </c>
       <c r="AH13" t="n">
-        <v>173435.5620713262</v>
+        <v>209770.1943673936</v>
       </c>
     </row>
     <row r="14">
@@ -18876,28 +18876,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>138.7336447094723</v>
+        <v>168.0911485963962</v>
       </c>
       <c r="AB14" t="n">
-        <v>189.8214931878577</v>
+        <v>229.9897251675903</v>
       </c>
       <c r="AC14" t="n">
-        <v>171.705196294201</v>
+        <v>208.0398285902684</v>
       </c>
       <c r="AD14" t="n">
-        <v>138733.6447094723</v>
+        <v>168091.1485963962</v>
       </c>
       <c r="AE14" t="n">
-        <v>189821.4931878577</v>
+        <v>229989.7251675903</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.558970944320497e-06</v>
+        <v>6.303201998489205e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.068672839506173</v>
       </c>
       <c r="AH14" t="n">
-        <v>171705.196294201</v>
+        <v>208039.8285902684</v>
       </c>
     </row>
     <row r="15">
@@ -18982,28 +18982,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>139.0107639141717</v>
+        <v>168.3682678010956</v>
       </c>
       <c r="AB15" t="n">
-        <v>190.2006599093637</v>
+        <v>230.3688918890963</v>
       </c>
       <c r="AC15" t="n">
-        <v>172.0481758759704</v>
+        <v>208.3828081720378</v>
       </c>
       <c r="AD15" t="n">
-        <v>139010.7639141717</v>
+        <v>168368.2678010956</v>
       </c>
       <c r="AE15" t="n">
-        <v>190200.6599093637</v>
+        <v>230368.8918890963</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.555668344671002e-06</v>
+        <v>6.297352849104008e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.072530864197531</v>
       </c>
       <c r="AH15" t="n">
-        <v>172048.1758759704</v>
+        <v>208382.8081720378</v>
       </c>
     </row>
   </sheetData>
@@ -19279,28 +19279,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>278.688253622457</v>
+        <v>328.6992120915851</v>
       </c>
       <c r="AB2" t="n">
-        <v>381.313563464269</v>
+        <v>449.740763169503</v>
       </c>
       <c r="AC2" t="n">
-        <v>344.9215321441859</v>
+        <v>406.8181359477304</v>
       </c>
       <c r="AD2" t="n">
-        <v>278688.253622457</v>
+        <v>328699.2120915852</v>
       </c>
       <c r="AE2" t="n">
-        <v>381313.563464269</v>
+        <v>449740.763169503</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.20737037339098e-06</v>
+        <v>3.849461185369141e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.587191358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>344921.5321441859</v>
+        <v>406818.1359477304</v>
       </c>
     </row>
     <row r="3">
@@ -19385,28 +19385,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>197.6313934143992</v>
+        <v>237.4695679891091</v>
       </c>
       <c r="AB3" t="n">
-        <v>270.4079913511862</v>
+        <v>324.9163393404984</v>
       </c>
       <c r="AC3" t="n">
-        <v>244.6006321767077</v>
+        <v>293.9067799368842</v>
       </c>
       <c r="AD3" t="n">
-        <v>197631.3934143992</v>
+        <v>237469.5679891091</v>
       </c>
       <c r="AE3" t="n">
-        <v>270407.9913511862</v>
+        <v>324916.3393404984</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.835407199631448e-06</v>
+        <v>4.944702570656543e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.461419753086421</v>
       </c>
       <c r="AH3" t="n">
-        <v>244600.6321767077</v>
+        <v>293906.7799368842</v>
       </c>
     </row>
     <row r="4">
@@ -19491,28 +19491,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>173.0375866769791</v>
+        <v>212.9610125977096</v>
       </c>
       <c r="AB4" t="n">
-        <v>236.7576599708873</v>
+        <v>291.3826526128488</v>
       </c>
       <c r="AC4" t="n">
-        <v>214.1618411947971</v>
+        <v>263.5735012056858</v>
       </c>
       <c r="AD4" t="n">
-        <v>173037.5866769791</v>
+        <v>212961.0125977096</v>
       </c>
       <c r="AE4" t="n">
-        <v>236757.6599708874</v>
+        <v>291382.6526128488</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.065923205280621e-06</v>
+        <v>5.346702356034496e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.902006172839506</v>
       </c>
       <c r="AH4" t="n">
-        <v>214161.8411947971</v>
+        <v>263573.5012056858</v>
       </c>
     </row>
     <row r="5">
@@ -19597,28 +19597,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>166.1509913389121</v>
+        <v>206.0744172596424</v>
       </c>
       <c r="AB5" t="n">
-        <v>227.3351164142046</v>
+        <v>281.960109056166</v>
       </c>
       <c r="AC5" t="n">
-        <v>205.6385719705382</v>
+        <v>255.0502319814269</v>
       </c>
       <c r="AD5" t="n">
-        <v>166150.9913389121</v>
+        <v>206074.4172596424</v>
       </c>
       <c r="AE5" t="n">
-        <v>227335.1164142046</v>
+        <v>281960.109056166</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.186967417621265e-06</v>
+        <v>5.557792892872265e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.639660493827162</v>
       </c>
       <c r="AH5" t="n">
-        <v>205638.5719705382</v>
+        <v>255050.2319814269</v>
       </c>
     </row>
     <row r="6">
@@ -19703,28 +19703,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>161.7619891351215</v>
+        <v>191.6833128705775</v>
       </c>
       <c r="AB6" t="n">
-        <v>221.3298899698698</v>
+        <v>262.2695651403399</v>
       </c>
       <c r="AC6" t="n">
-        <v>200.2064759096605</v>
+        <v>237.238925941069</v>
       </c>
       <c r="AD6" t="n">
-        <v>161761.9891351215</v>
+        <v>191683.3128705775</v>
       </c>
       <c r="AE6" t="n">
-        <v>221329.8899698698</v>
+        <v>262269.5651403399</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266548365562486e-06</v>
+        <v>5.696575117136697e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.477623456790123</v>
       </c>
       <c r="AH6" t="n">
-        <v>200206.4759096605</v>
+        <v>237238.925941069</v>
       </c>
     </row>
     <row r="7">
@@ -19809,28 +19809,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>159.2888330717577</v>
+        <v>189.2101568072137</v>
       </c>
       <c r="AB7" t="n">
-        <v>217.946008736032</v>
+        <v>258.885683906502</v>
       </c>
       <c r="AC7" t="n">
-        <v>197.145547551472</v>
+        <v>234.1779975828804</v>
       </c>
       <c r="AD7" t="n">
-        <v>159288.8330717577</v>
+        <v>189210.1568072136</v>
       </c>
       <c r="AE7" t="n">
-        <v>217946.008736032</v>
+        <v>258885.6839065021</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.309437615245487e-06</v>
+        <v>5.771370223528693e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.392746913580247</v>
       </c>
       <c r="AH7" t="n">
-        <v>197145.547551472</v>
+        <v>234177.9975828804</v>
       </c>
     </row>
     <row r="8">
@@ -19915,28 +19915,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>156.9118636072447</v>
+        <v>186.8331873427007</v>
       </c>
       <c r="AB8" t="n">
-        <v>214.6937342501951</v>
+        <v>255.6334094206652</v>
       </c>
       <c r="AC8" t="n">
-        <v>194.2036655779665</v>
+        <v>231.2361156093749</v>
       </c>
       <c r="AD8" t="n">
-        <v>156911.8636072447</v>
+        <v>186833.1873427007</v>
       </c>
       <c r="AE8" t="n">
-        <v>214693.7342501951</v>
+        <v>255633.4094206652</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.347829526726435e-06</v>
+        <v>5.838322364800302e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.319444444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>194203.6655779665</v>
+        <v>231236.1156093749</v>
       </c>
     </row>
     <row r="9">
@@ -20021,28 +20021,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>155.3634961024746</v>
+        <v>185.2848198379305</v>
       </c>
       <c r="AB9" t="n">
-        <v>212.5751895210165</v>
+        <v>253.5148646914865</v>
       </c>
       <c r="AC9" t="n">
-        <v>192.2873117843437</v>
+        <v>229.3197618157521</v>
       </c>
       <c r="AD9" t="n">
-        <v>155363.4961024746</v>
+        <v>185284.8198379305</v>
       </c>
       <c r="AE9" t="n">
-        <v>212575.1895210165</v>
+        <v>253514.8646914865</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.370371063324534e-06</v>
+        <v>5.877632836318346e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.277006172839506</v>
       </c>
       <c r="AH9" t="n">
-        <v>192287.3117843437</v>
+        <v>229319.7618157521</v>
       </c>
     </row>
     <row r="10">
@@ -20127,28 +20127,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>153.795337903758</v>
+        <v>183.7166616392139</v>
       </c>
       <c r="AB10" t="n">
-        <v>210.4295662912764</v>
+        <v>251.3692414617464</v>
       </c>
       <c r="AC10" t="n">
-        <v>190.3464638242482</v>
+        <v>227.3789138556566</v>
       </c>
       <c r="AD10" t="n">
-        <v>153795.337903758</v>
+        <v>183716.6616392139</v>
       </c>
       <c r="AE10" t="n">
-        <v>210429.5662912764</v>
+        <v>251369.2414617465</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.392802908746972e-06</v>
+        <v>5.916752016004185e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH10" t="n">
-        <v>190346.4638242482</v>
+        <v>227378.9138556566</v>
       </c>
     </row>
     <row r="11">
@@ -20233,28 +20233,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>152.3676192948538</v>
+        <v>182.2889430303098</v>
       </c>
       <c r="AB11" t="n">
-        <v>208.476098704075</v>
+        <v>249.4157738745451</v>
       </c>
       <c r="AC11" t="n">
-        <v>188.5794324418598</v>
+        <v>225.6118824732682</v>
       </c>
       <c r="AD11" t="n">
-        <v>152367.6192948538</v>
+        <v>182288.9430303098</v>
       </c>
       <c r="AE11" t="n">
-        <v>208476.098704075</v>
+        <v>249415.7738745451</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.409311430683779e-06</v>
+        <v>5.945541436750976e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.207561728395062</v>
       </c>
       <c r="AH11" t="n">
-        <v>188579.4324418598</v>
+        <v>225611.8824732682</v>
       </c>
     </row>
     <row r="12">
@@ -20339,28 +20339,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>151.3410708177475</v>
+        <v>181.2623945532035</v>
       </c>
       <c r="AB12" t="n">
-        <v>207.0715297895764</v>
+        <v>248.0112049600465</v>
       </c>
       <c r="AC12" t="n">
-        <v>187.3089136132356</v>
+        <v>224.341363644644</v>
       </c>
       <c r="AD12" t="n">
-        <v>151341.0708177475</v>
+        <v>181262.3945532035</v>
       </c>
       <c r="AE12" t="n">
-        <v>207071.5297895764</v>
+        <v>248011.2049600465</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.418580335027037e-06</v>
+        <v>5.961705596572264e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH12" t="n">
-        <v>187308.9136132356</v>
+        <v>224341.363644644</v>
       </c>
     </row>
     <row r="13">
@@ -20445,28 +20445,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>150.0608937385496</v>
+        <v>179.9822174740056</v>
       </c>
       <c r="AB13" t="n">
-        <v>205.319935032392</v>
+        <v>246.259610202862</v>
       </c>
       <c r="AC13" t="n">
-        <v>185.7244886012976</v>
+        <v>222.756938632706</v>
       </c>
       <c r="AD13" t="n">
-        <v>150060.8937385496</v>
+        <v>179982.2174740056</v>
       </c>
       <c r="AE13" t="n">
-        <v>205319.9350323919</v>
+        <v>246259.610202862</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.433059570214137e-06</v>
+        <v>5.98695611842327e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.165123456790123</v>
       </c>
       <c r="AH13" t="n">
-        <v>185724.4886012976</v>
+        <v>222756.938632706</v>
       </c>
     </row>
     <row r="14">
@@ -20551,28 +20551,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>148.7243115085664</v>
+        <v>178.6456352440223</v>
       </c>
       <c r="AB14" t="n">
-        <v>203.4911642594834</v>
+        <v>244.4308394299535</v>
       </c>
       <c r="AC14" t="n">
-        <v>184.070253144259</v>
+        <v>221.1027031756674</v>
       </c>
       <c r="AD14" t="n">
-        <v>148724.3115085664</v>
+        <v>178645.6352440224</v>
       </c>
       <c r="AE14" t="n">
-        <v>203491.1642594834</v>
+        <v>244430.8394299535</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.447867878928217e-06</v>
+        <v>6.012780515770891e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.138117283950617</v>
       </c>
       <c r="AH14" t="n">
-        <v>184070.253144259</v>
+        <v>221102.7031756674</v>
       </c>
     </row>
     <row r="15">
@@ -20657,28 +20657,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>147.1245142402563</v>
+        <v>177.0458379757123</v>
       </c>
       <c r="AB15" t="n">
-        <v>201.3022510589084</v>
+        <v>242.2419262293784</v>
       </c>
       <c r="AC15" t="n">
-        <v>182.0902467473872</v>
+        <v>219.1226967787956</v>
       </c>
       <c r="AD15" t="n">
-        <v>147124.5142402563</v>
+        <v>177045.8379757123</v>
       </c>
       <c r="AE15" t="n">
-        <v>201302.2510589084</v>
+        <v>242241.9262293784</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.459440297960331e-06</v>
+        <v>6.032961804068476e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.114969135802469</v>
       </c>
       <c r="AH15" t="n">
-        <v>182090.2467473872</v>
+        <v>219122.6967787956</v>
       </c>
     </row>
     <row r="16">
@@ -20763,28 +20763,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>146.7514568593483</v>
+        <v>176.6727805948042</v>
       </c>
       <c r="AB16" t="n">
-        <v>200.7918174922201</v>
+        <v>241.7314926626902</v>
       </c>
       <c r="AC16" t="n">
-        <v>181.6285282439055</v>
+        <v>218.6609782753139</v>
       </c>
       <c r="AD16" t="n">
-        <v>146751.4568593483</v>
+        <v>176672.7805948042</v>
       </c>
       <c r="AE16" t="n">
-        <v>200791.8174922201</v>
+        <v>241731.4926626902</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.457794930325434e-06</v>
+        <v>6.030092426585407e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH16" t="n">
-        <v>181628.5282439055</v>
+        <v>218660.9782753139</v>
       </c>
     </row>
     <row r="17">
@@ -20869,28 +20869,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>145.303545442743</v>
+        <v>175.224869178199</v>
       </c>
       <c r="AB17" t="n">
-        <v>198.8107212146783</v>
+        <v>239.7503963851484</v>
       </c>
       <c r="AC17" t="n">
-        <v>179.8365050146055</v>
+        <v>216.8689550460139</v>
       </c>
       <c r="AD17" t="n">
-        <v>145303.545442743</v>
+        <v>175224.869178199</v>
       </c>
       <c r="AE17" t="n">
-        <v>198810.7212146783</v>
+        <v>239750.3963851484</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.468215592013119e-06</v>
+        <v>6.048265150644843e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.099537037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>179836.5050146055</v>
+        <v>216868.9550460139</v>
       </c>
     </row>
     <row r="18">
@@ -20975,28 +20975,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>145.6997116378078</v>
+        <v>175.6210353732637</v>
       </c>
       <c r="AB18" t="n">
-        <v>199.3527732803847</v>
+        <v>240.2924484508547</v>
       </c>
       <c r="AC18" t="n">
-        <v>180.3268243919359</v>
+        <v>217.3592744233443</v>
       </c>
       <c r="AD18" t="n">
-        <v>145699.7116378078</v>
+        <v>175621.0353732637</v>
       </c>
       <c r="AE18" t="n">
-        <v>199352.7732803847</v>
+        <v>240292.4484508547</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.46783167289831e-06</v>
+        <v>6.047595629232126e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.103395061728396</v>
       </c>
       <c r="AH18" t="n">
-        <v>180326.8243919359</v>
+        <v>217359.2744233443</v>
       </c>
     </row>
   </sheetData>
@@ -21272,28 +21272,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>355.5303496426119</v>
+        <v>417.4695607311365</v>
       </c>
       <c r="AB2" t="n">
-        <v>486.4523092730647</v>
+        <v>571.2002704495225</v>
       </c>
       <c r="AC2" t="n">
-        <v>440.0259836161468</v>
+        <v>516.6857183224338</v>
       </c>
       <c r="AD2" t="n">
-        <v>355530.3496426119</v>
+        <v>417469.5607311365</v>
       </c>
       <c r="AE2" t="n">
-        <v>486452.3092730647</v>
+        <v>571200.2704495224</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.874436770886759e-06</v>
+        <v>3.186418279626093e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.89506172839506</v>
       </c>
       <c r="AH2" t="n">
-        <v>440025.9836161468</v>
+        <v>516685.7183224338</v>
       </c>
     </row>
     <row r="3">
@@ -21378,28 +21378,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>228.3614217583582</v>
+        <v>279.8778666684645</v>
       </c>
       <c r="AB3" t="n">
-        <v>312.454171844539</v>
+        <v>382.9412445158402</v>
       </c>
       <c r="AC3" t="n">
-        <v>282.6339842159732</v>
+        <v>346.3938696006599</v>
       </c>
       <c r="AD3" t="n">
-        <v>228361.4217583582</v>
+        <v>279877.8666684646</v>
       </c>
       <c r="AE3" t="n">
-        <v>312454.1718445389</v>
+        <v>382941.2445158402</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.555328257193398e-06</v>
+        <v>4.343888679325337e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.993827160493827</v>
       </c>
       <c r="AH3" t="n">
-        <v>282633.9842159732</v>
+        <v>346393.8696006599</v>
       </c>
     </row>
     <row r="4">
@@ -21484,28 +21484,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>207.4470484073936</v>
+        <v>248.6261575021983</v>
       </c>
       <c r="AB4" t="n">
-        <v>283.8382035487305</v>
+        <v>340.1812773062915</v>
       </c>
       <c r="AC4" t="n">
-        <v>256.7490837715438</v>
+        <v>307.7148536477017</v>
       </c>
       <c r="AD4" t="n">
-        <v>207447.0484073936</v>
+        <v>248626.1575021982</v>
       </c>
       <c r="AE4" t="n">
-        <v>283838.2035487305</v>
+        <v>340181.2773062915</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.812766859114498e-06</v>
+        <v>4.781517240492917e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.260802469135803</v>
       </c>
       <c r="AH4" t="n">
-        <v>256749.0837715438</v>
+        <v>307714.8536477017</v>
       </c>
     </row>
     <row r="5">
@@ -21590,28 +21590,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>187.86092587439</v>
+        <v>229.1252863152152</v>
       </c>
       <c r="AB5" t="n">
-        <v>257.0396066203459</v>
+        <v>313.4993250305561</v>
       </c>
       <c r="AC5" t="n">
-        <v>232.5081073219287</v>
+        <v>283.5793894487988</v>
       </c>
       <c r="AD5" t="n">
-        <v>187860.92587439</v>
+        <v>229125.2863152153</v>
       </c>
       <c r="AE5" t="n">
-        <v>257039.6066203459</v>
+        <v>313499.3250305561</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.947547587161202e-06</v>
+        <v>5.010635545393732e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.929012345679013</v>
       </c>
       <c r="AH5" t="n">
-        <v>232508.1073219287</v>
+        <v>283579.3894487988</v>
       </c>
     </row>
     <row r="6">
@@ -21696,28 +21696,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>182.1991144567293</v>
+        <v>223.4634748975545</v>
       </c>
       <c r="AB6" t="n">
-        <v>249.2928664572153</v>
+        <v>305.7525848674255</v>
       </c>
       <c r="AC6" t="n">
-        <v>225.5007051673467</v>
+        <v>276.5719872942169</v>
       </c>
       <c r="AD6" t="n">
-        <v>182199.1144567293</v>
+        <v>223463.4748975545</v>
       </c>
       <c r="AE6" t="n">
-        <v>249292.8664572153</v>
+        <v>305752.5848674255</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.036748501049142e-06</v>
+        <v>5.162271187089675e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.724537037037037</v>
       </c>
       <c r="AH6" t="n">
-        <v>225500.7051673467</v>
+        <v>276571.9872942169</v>
       </c>
     </row>
     <row r="7">
@@ -21802,28 +21802,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>178.3680795170372</v>
+        <v>209.4656963431566</v>
       </c>
       <c r="AB7" t="n">
-        <v>244.0510754393982</v>
+        <v>286.6002067109017</v>
       </c>
       <c r="AC7" t="n">
-        <v>220.7591833273685</v>
+        <v>259.247485228414</v>
       </c>
       <c r="AD7" t="n">
-        <v>178368.0795170373</v>
+        <v>209465.6963431566</v>
       </c>
       <c r="AE7" t="n">
-        <v>244051.0754393982</v>
+        <v>286600.2067109017</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.097256895455027e-06</v>
+        <v>5.265131447302413e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.593364197530864</v>
       </c>
       <c r="AH7" t="n">
-        <v>220759.1833273685</v>
+        <v>259247.485228414</v>
       </c>
     </row>
     <row r="8">
@@ -21908,28 +21908,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>176.1034358220493</v>
+        <v>207.2010526481686</v>
       </c>
       <c r="AB8" t="n">
-        <v>240.9524900268887</v>
+        <v>283.5016212983922</v>
       </c>
       <c r="AC8" t="n">
-        <v>217.9563225577359</v>
+        <v>256.4446244587814</v>
       </c>
       <c r="AD8" t="n">
-        <v>176103.4358220493</v>
+        <v>207201.0526481686</v>
       </c>
       <c r="AE8" t="n">
-        <v>240952.4900268887</v>
+        <v>283501.6212983922</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.132725508098896e-06</v>
+        <v>5.325425738065786e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.520061728395061</v>
       </c>
       <c r="AH8" t="n">
-        <v>217956.3225577359</v>
+        <v>256444.6244587814</v>
       </c>
     </row>
     <row r="9">
@@ -22014,28 +22014,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>173.3813785689682</v>
+        <v>204.3084031944954</v>
       </c>
       <c r="AB9" t="n">
-        <v>237.2280512045344</v>
+        <v>279.543770701191</v>
       </c>
       <c r="AC9" t="n">
-        <v>214.5873389493033</v>
+        <v>252.8645055676978</v>
       </c>
       <c r="AD9" t="n">
-        <v>173381.3785689682</v>
+        <v>204308.4031944954</v>
       </c>
       <c r="AE9" t="n">
-        <v>237228.0512045344</v>
+        <v>279543.770701191</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.173117375930646e-06</v>
+        <v>5.394089236353027e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.435185185185185</v>
       </c>
       <c r="AH9" t="n">
-        <v>214587.3389493033</v>
+        <v>252864.5055676978</v>
       </c>
     </row>
     <row r="10">
@@ -22120,28 +22120,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>172.6959986839786</v>
+        <v>203.6230233095057</v>
       </c>
       <c r="AB10" t="n">
-        <v>236.2902842090655</v>
+        <v>278.6060037057221</v>
       </c>
       <c r="AC10" t="n">
-        <v>213.7390711197173</v>
+        <v>252.0162377381118</v>
       </c>
       <c r="AD10" t="n">
-        <v>172695.9986839786</v>
+        <v>203623.0233095057</v>
       </c>
       <c r="AE10" t="n">
-        <v>236290.2842090655</v>
+        <v>278606.003705722</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.180264036687247e-06</v>
+        <v>5.406238085984454e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.423611111111111</v>
       </c>
       <c r="AH10" t="n">
-        <v>213739.0711197173</v>
+        <v>252016.2377381118</v>
       </c>
     </row>
     <row r="11">
@@ -22226,28 +22226,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>170.810828426316</v>
+        <v>201.7378530518432</v>
       </c>
       <c r="AB11" t="n">
-        <v>233.7109110946909</v>
+        <v>276.0266305913474</v>
       </c>
       <c r="AC11" t="n">
-        <v>211.4058697552049</v>
+        <v>249.6830363735994</v>
       </c>
       <c r="AD11" t="n">
-        <v>170810.8284263161</v>
+        <v>201737.8530518432</v>
       </c>
       <c r="AE11" t="n">
-        <v>233710.9110946909</v>
+        <v>276026.6305913475</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.209221247308435e-06</v>
+        <v>5.455463424861415e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.365740740740741</v>
       </c>
       <c r="AH11" t="n">
-        <v>211405.8697552049</v>
+        <v>249683.0363735994</v>
       </c>
     </row>
     <row r="12">
@@ -22332,28 +22332,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>169.6327307085121</v>
+        <v>200.5597553340392</v>
       </c>
       <c r="AB12" t="n">
-        <v>232.0989858231892</v>
+        <v>274.4147053198458</v>
       </c>
       <c r="AC12" t="n">
-        <v>209.9477843692635</v>
+        <v>248.224950987658</v>
       </c>
       <c r="AD12" t="n">
-        <v>169632.7307085121</v>
+        <v>200559.7553340392</v>
       </c>
       <c r="AE12" t="n">
-        <v>232098.9858231892</v>
+        <v>274414.7053198458</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.223302815910329e-06</v>
+        <v>5.479401158209262e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.334876543209877</v>
       </c>
       <c r="AH12" t="n">
-        <v>209947.7843692635</v>
+        <v>248224.950987658</v>
       </c>
     </row>
     <row r="13">
@@ -22438,28 +22438,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>168.5975211852865</v>
+        <v>199.5245458108135</v>
       </c>
       <c r="AB13" t="n">
-        <v>230.6825664832916</v>
+        <v>272.9982859799483</v>
       </c>
       <c r="AC13" t="n">
-        <v>208.6665461032083</v>
+        <v>246.9437127216028</v>
       </c>
       <c r="AD13" t="n">
-        <v>168597.5211852865</v>
+        <v>199524.5458108135</v>
       </c>
       <c r="AE13" t="n">
-        <v>230682.5664832916</v>
+        <v>272998.2859799482</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.234155152614798e-06</v>
+        <v>5.497849411353279e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.315586419753087</v>
       </c>
       <c r="AH13" t="n">
-        <v>208666.5461032083</v>
+        <v>246943.7127216028</v>
       </c>
     </row>
     <row r="14">
@@ -22544,28 +22544,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>167.5931388611884</v>
+        <v>198.5201634867155</v>
       </c>
       <c r="AB14" t="n">
-        <v>229.3083262772405</v>
+        <v>271.6240457738971</v>
       </c>
       <c r="AC14" t="n">
-        <v>207.423461453664</v>
+        <v>245.7006280720585</v>
       </c>
       <c r="AD14" t="n">
-        <v>167593.1388611884</v>
+        <v>198520.1634867155</v>
       </c>
       <c r="AE14" t="n">
-        <v>229308.3262772405</v>
+        <v>271624.0457738971</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.246648574381892e-06</v>
+        <v>5.519087400338587e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.292438271604938</v>
       </c>
       <c r="AH14" t="n">
-        <v>207423.461453664</v>
+        <v>245700.6280720585</v>
       </c>
     </row>
     <row r="15">
@@ -22650,28 +22650,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>166.5618957720762</v>
+        <v>197.4889203976033</v>
       </c>
       <c r="AB15" t="n">
-        <v>227.8973339874837</v>
+        <v>270.2130534841403</v>
       </c>
       <c r="AC15" t="n">
-        <v>206.1471322877011</v>
+        <v>244.4242989060956</v>
       </c>
       <c r="AD15" t="n">
-        <v>166561.8957720762</v>
+        <v>197488.9203976033</v>
       </c>
       <c r="AE15" t="n">
-        <v>227897.3339874837</v>
+        <v>270213.0534841403</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.259406687288119e-06</v>
+        <v>5.54077534671765e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.265432098765432</v>
       </c>
       <c r="AH15" t="n">
-        <v>206147.1322877011</v>
+        <v>244424.2989060956</v>
       </c>
     </row>
     <row r="16">
@@ -22756,28 +22756,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>165.0544911725478</v>
+        <v>195.9815157980748</v>
       </c>
       <c r="AB16" t="n">
-        <v>225.8348365124124</v>
+        <v>268.150556009069</v>
       </c>
       <c r="AC16" t="n">
-        <v>204.2814766769165</v>
+        <v>242.558643295311</v>
       </c>
       <c r="AD16" t="n">
-        <v>165054.4911725477</v>
+        <v>195981.5157980748</v>
       </c>
       <c r="AE16" t="n">
-        <v>225834.8365124124</v>
+        <v>268150.556009069</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.27354119411784e-06</v>
+        <v>5.564803071544247e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH16" t="n">
-        <v>204281.4766769165</v>
+        <v>242558.643295311</v>
       </c>
     </row>
     <row r="17">
@@ -22862,28 +22862,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>164.9097720152094</v>
+        <v>195.8367966407365</v>
       </c>
       <c r="AB17" t="n">
-        <v>225.6368253767835</v>
+        <v>267.9525448734401</v>
       </c>
       <c r="AC17" t="n">
-        <v>204.1023634461616</v>
+        <v>242.3795300645561</v>
       </c>
       <c r="AD17" t="n">
-        <v>164909.7720152094</v>
+        <v>195836.7966407365</v>
       </c>
       <c r="AE17" t="n">
-        <v>225636.8253767835</v>
+        <v>267952.5448734401</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.27354119411784e-06</v>
+        <v>5.564803071544247e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH17" t="n">
-        <v>204102.3634461616</v>
+        <v>242379.5300645561</v>
       </c>
     </row>
     <row r="18">
@@ -22968,28 +22968,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>163.4762100852079</v>
+        <v>194.4032347107349</v>
       </c>
       <c r="AB18" t="n">
-        <v>223.6753626998676</v>
+        <v>265.9910821965242</v>
       </c>
       <c r="AC18" t="n">
-        <v>202.3281000141998</v>
+        <v>240.6052666325943</v>
       </c>
       <c r="AD18" t="n">
-        <v>163476.2100852079</v>
+        <v>194403.2347107349</v>
       </c>
       <c r="AE18" t="n">
-        <v>223675.3626998676</v>
+        <v>265991.0821965243</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.287463948036255e-06</v>
+        <v>5.588470830455839e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.211419753086421</v>
       </c>
       <c r="AH18" t="n">
-        <v>202328.1000141998</v>
+        <v>240605.2666325943</v>
       </c>
     </row>
     <row r="19">
@@ -23074,28 +23074,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>163.1621632412981</v>
+        <v>194.0891878668251</v>
       </c>
       <c r="AB19" t="n">
-        <v>223.2456699532615</v>
+        <v>265.5613894499181</v>
       </c>
       <c r="AC19" t="n">
-        <v>201.939416540252</v>
+        <v>240.2165831586465</v>
       </c>
       <c r="AD19" t="n">
-        <v>163162.1632412981</v>
+        <v>194089.1878668251</v>
       </c>
       <c r="AE19" t="n">
-        <v>223245.6699532615</v>
+        <v>265561.3894499181</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.287411009808428e-06</v>
+        <v>5.588380838977089e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.211419753086421</v>
       </c>
       <c r="AH19" t="n">
-        <v>201939.416540252</v>
+        <v>240216.5831586465</v>
       </c>
     </row>
     <row r="20">
@@ -23180,28 +23180,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>161.5480153553713</v>
+        <v>192.4750399808984</v>
       </c>
       <c r="AB20" t="n">
-        <v>221.0371216045588</v>
+        <v>263.3528411012154</v>
       </c>
       <c r="AC20" t="n">
-        <v>199.9416489462318</v>
+        <v>238.2188155646263</v>
       </c>
       <c r="AD20" t="n">
-        <v>161548.0153553713</v>
+        <v>192475.0399808984</v>
       </c>
       <c r="AE20" t="n">
-        <v>221037.1216045588</v>
+        <v>263352.8411012154</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.298528037652029e-06</v>
+        <v>5.607279049514862e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH20" t="n">
-        <v>199941.6489462318</v>
+        <v>238218.8155646262</v>
       </c>
     </row>
     <row r="21">
@@ -23286,28 +23286,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>161.6149556980453</v>
+        <v>192.5419803235723</v>
       </c>
       <c r="AB21" t="n">
-        <v>221.1287123346047</v>
+        <v>263.4444318312613</v>
       </c>
       <c r="AC21" t="n">
-        <v>200.0244983855505</v>
+        <v>238.301665003945</v>
       </c>
       <c r="AD21" t="n">
-        <v>161614.9556980453</v>
+        <v>192541.9803235724</v>
       </c>
       <c r="AE21" t="n">
-        <v>221128.7123346047</v>
+        <v>263444.4318312613</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.300857319676402e-06</v>
+        <v>5.611238674579919e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH21" t="n">
-        <v>200024.4983855505</v>
+        <v>238301.665003945</v>
       </c>
     </row>
     <row r="22">
@@ -23392,28 +23392,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>160.9126657560494</v>
+        <v>191.8396903815765</v>
       </c>
       <c r="AB22" t="n">
-        <v>220.1678082531209</v>
+        <v>262.4835277497775</v>
       </c>
       <c r="AC22" t="n">
-        <v>199.1553016409659</v>
+        <v>237.4324682593603</v>
       </c>
       <c r="AD22" t="n">
-        <v>160912.6657560494</v>
+        <v>191839.6903815765</v>
       </c>
       <c r="AE22" t="n">
-        <v>220167.8082531209</v>
+        <v>262483.5277497775</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.302657219422509e-06</v>
+        <v>5.614298384857463e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.184413580246915</v>
       </c>
       <c r="AH22" t="n">
-        <v>199155.3016409659</v>
+        <v>237432.4682593604</v>
       </c>
     </row>
     <row r="23">
@@ -23498,28 +23498,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>159.8297124396337</v>
+        <v>190.7567370651608</v>
       </c>
       <c r="AB23" t="n">
-        <v>218.6860637490732</v>
+        <v>261.0017832457298</v>
       </c>
       <c r="AC23" t="n">
-        <v>197.8149727527425</v>
+        <v>236.092139371137</v>
       </c>
       <c r="AD23" t="n">
-        <v>159829.7124396337</v>
+        <v>190756.7370651608</v>
       </c>
       <c r="AE23" t="n">
-        <v>218686.0637490732</v>
+        <v>261001.7832457298</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.301492578410323e-06</v>
+        <v>5.612318572324935e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.184413580246915</v>
       </c>
       <c r="AH23" t="n">
-        <v>197814.9727527425</v>
+        <v>236092.139371137</v>
       </c>
     </row>
     <row r="24">
@@ -23604,28 +23604,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>159.3367955357325</v>
+        <v>190.2638201612596</v>
       </c>
       <c r="AB24" t="n">
-        <v>218.0116330951969</v>
+        <v>260.3273525918536</v>
       </c>
       <c r="AC24" t="n">
-        <v>197.2049088139026</v>
+        <v>235.4820754322971</v>
       </c>
       <c r="AD24" t="n">
-        <v>159336.7955357325</v>
+        <v>190263.8201612596</v>
       </c>
       <c r="AE24" t="n">
-        <v>218011.6330951969</v>
+        <v>260327.3525918536</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.314674197139163e-06</v>
+        <v>5.634726450534009e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.161265432098766</v>
       </c>
       <c r="AH24" t="n">
-        <v>197204.9088139026</v>
+        <v>235482.0754322971</v>
       </c>
     </row>
     <row r="25">
@@ -23710,28 +23710,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>159.409150924075</v>
+        <v>190.3361755496021</v>
       </c>
       <c r="AB25" t="n">
-        <v>218.1106329296215</v>
+        <v>260.4263524262781</v>
       </c>
       <c r="AC25" t="n">
-        <v>197.2944602430769</v>
+        <v>235.5716268614714</v>
       </c>
       <c r="AD25" t="n">
-        <v>159409.150924075</v>
+        <v>190336.1755496021</v>
       </c>
       <c r="AE25" t="n">
-        <v>218110.6329296215</v>
+        <v>260426.3524262781</v>
       </c>
       <c r="AF25" t="n">
-        <v>3.313191926760017e-06</v>
+        <v>5.632206689128974e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>7</v>
+        <v>6.165123456790123</v>
       </c>
       <c r="AH25" t="n">
-        <v>197294.4602430769</v>
+        <v>235571.6268614714</v>
       </c>
     </row>
     <row r="26">
@@ -23816,28 +23816,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>159.6789715294342</v>
+        <v>190.6059961549613</v>
       </c>
       <c r="AB26" t="n">
-        <v>218.4798133855188</v>
+        <v>260.7955328821753</v>
       </c>
       <c r="AC26" t="n">
-        <v>197.6284066344114</v>
+        <v>235.9055732528059</v>
       </c>
       <c r="AD26" t="n">
-        <v>159678.9715294342</v>
+        <v>190605.9961549613</v>
       </c>
       <c r="AE26" t="n">
-        <v>218479.8133855188</v>
+        <v>260795.5328821754</v>
       </c>
       <c r="AF26" t="n">
-        <v>3.313986000177417e-06</v>
+        <v>5.633556561310243e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>7</v>
+        <v>6.161265432098766</v>
       </c>
       <c r="AH26" t="n">
-        <v>197628.4066344115</v>
+        <v>235905.5732528059</v>
       </c>
     </row>
   </sheetData>
@@ -24113,28 +24113,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>213.5854948431588</v>
+        <v>251.9328289417537</v>
       </c>
       <c r="AB2" t="n">
-        <v>292.2370967712843</v>
+        <v>344.7056110499371</v>
       </c>
       <c r="AC2" t="n">
-        <v>264.3463984128604</v>
+        <v>311.8073913287976</v>
       </c>
       <c r="AD2" t="n">
-        <v>213585.4948431588</v>
+        <v>251932.8289417537</v>
       </c>
       <c r="AE2" t="n">
-        <v>292237.0967712842</v>
+        <v>344705.6110499371</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.621124818194991e-06</v>
+        <v>4.726508310031745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.429783950617285</v>
       </c>
       <c r="AH2" t="n">
-        <v>264346.3984128603</v>
+        <v>311807.3913287976</v>
       </c>
     </row>
     <row r="3">
@@ -24219,28 +24219,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>158.7906893779284</v>
+        <v>197.1379339679723</v>
       </c>
       <c r="AB3" t="n">
-        <v>217.2644265575864</v>
+        <v>269.7328183666909</v>
       </c>
       <c r="AC3" t="n">
-        <v>196.5290146195305</v>
+        <v>243.9898967542411</v>
       </c>
       <c r="AD3" t="n">
-        <v>158790.6893779284</v>
+        <v>197137.9339679723</v>
       </c>
       <c r="AE3" t="n">
-        <v>217264.4265575864</v>
+        <v>269732.8183666909</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.168693467806333e-06</v>
+        <v>5.713904161894737e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.971450617283951</v>
       </c>
       <c r="AH3" t="n">
-        <v>196529.0146195305</v>
+        <v>243989.8967542411</v>
       </c>
     </row>
     <row r="4">
@@ -24325,28 +24325,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>149.4680602612588</v>
+        <v>178.3778401992921</v>
       </c>
       <c r="AB4" t="n">
-        <v>204.5087941147959</v>
+        <v>244.0644304354701</v>
       </c>
       <c r="AC4" t="n">
-        <v>184.9907618344333</v>
+        <v>220.7712637413592</v>
       </c>
       <c r="AD4" t="n">
-        <v>149468.0602612589</v>
+        <v>178377.8401992921</v>
       </c>
       <c r="AE4" t="n">
-        <v>204508.7941147959</v>
+        <v>244064.4304354701</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.358432505162506e-06</v>
+        <v>6.056048546082802e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.577932098765433</v>
       </c>
       <c r="AH4" t="n">
-        <v>184990.7618344333</v>
+        <v>220771.2637413592</v>
       </c>
     </row>
     <row r="5">
@@ -24431,28 +24431,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>144.3967779508765</v>
+        <v>173.1359656883175</v>
       </c>
       <c r="AB5" t="n">
-        <v>197.5700419285487</v>
+        <v>236.892266474376</v>
       </c>
       <c r="AC5" t="n">
-        <v>178.7142344182394</v>
+        <v>214.2836010425143</v>
       </c>
       <c r="AD5" t="n">
-        <v>144396.7779508765</v>
+        <v>173135.9656883175</v>
       </c>
       <c r="AE5" t="n">
-        <v>197570.0419285487</v>
+        <v>236892.2664743761</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.465758480413177e-06</v>
+        <v>6.249582677072369e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.373456790123457</v>
       </c>
       <c r="AH5" t="n">
-        <v>178714.2344182394</v>
+        <v>214283.6010425143</v>
       </c>
     </row>
     <row r="6">
@@ -24537,28 +24537,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>141.2548099284771</v>
+        <v>169.9939976659181</v>
       </c>
       <c r="AB6" t="n">
-        <v>193.2710626664578</v>
+        <v>232.5932872122851</v>
       </c>
       <c r="AC6" t="n">
-        <v>174.8255437032658</v>
+        <v>210.3949103275406</v>
       </c>
       <c r="AD6" t="n">
-        <v>141254.8099284771</v>
+        <v>169993.9976659181</v>
       </c>
       <c r="AE6" t="n">
-        <v>193271.0626664578</v>
+        <v>232593.2872122851</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.52532038770277e-06</v>
+        <v>6.356986890641819e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.26929012345679</v>
       </c>
       <c r="AH6" t="n">
-        <v>174825.5437032658</v>
+        <v>210394.9103275406</v>
       </c>
     </row>
     <row r="7">
@@ -24643,28 +24643,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>138.7761376412302</v>
+        <v>167.5153253786713</v>
       </c>
       <c r="AB7" t="n">
-        <v>189.8796338917447</v>
+        <v>229.201858437572</v>
       </c>
       <c r="AC7" t="n">
-        <v>171.7577881309101</v>
+        <v>207.3271547551849</v>
       </c>
       <c r="AD7" t="n">
-        <v>138776.1376412302</v>
+        <v>167515.3253786713</v>
       </c>
       <c r="AE7" t="n">
-        <v>189879.6338917447</v>
+        <v>229201.858437572</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.570106360299367e-06</v>
+        <v>6.437746597383463e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH7" t="n">
-        <v>171757.7881309101</v>
+        <v>207327.1547551849</v>
       </c>
     </row>
     <row r="8">
@@ -24749,28 +24749,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>136.9978727323025</v>
+        <v>165.7370604697435</v>
       </c>
       <c r="AB8" t="n">
-        <v>187.44653339184</v>
+        <v>226.7687579376673</v>
       </c>
       <c r="AC8" t="n">
-        <v>169.5568993278374</v>
+        <v>205.1262659521123</v>
       </c>
       <c r="AD8" t="n">
-        <v>136997.8727323025</v>
+        <v>165737.0604697435</v>
       </c>
       <c r="AE8" t="n">
-        <v>187446.53339184</v>
+        <v>226768.7579376673</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.593186599374084e-06</v>
+        <v>6.479365730141624e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.149691358024691</v>
       </c>
       <c r="AH8" t="n">
-        <v>169556.8993278375</v>
+        <v>205126.2659521123</v>
       </c>
     </row>
     <row r="9">
@@ -24855,28 +24855,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>135.0468191978661</v>
+        <v>163.7860069353071</v>
       </c>
       <c r="AB9" t="n">
-        <v>184.7770158716183</v>
+        <v>224.0992404174456</v>
       </c>
       <c r="AC9" t="n">
-        <v>167.1421568130535</v>
+        <v>202.7115234373284</v>
       </c>
       <c r="AD9" t="n">
-        <v>135046.8191978661</v>
+        <v>163786.0069353071</v>
       </c>
       <c r="AE9" t="n">
-        <v>184777.0158716183</v>
+        <v>224099.2404174456</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.620504897236715e-06</v>
+        <v>6.528627085788381e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.103395061728396</v>
       </c>
       <c r="AH9" t="n">
-        <v>167142.1568130535</v>
+        <v>202711.5234373284</v>
       </c>
     </row>
     <row r="10">
@@ -24961,28 +24961,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>133.4082751280472</v>
+        <v>162.1474628654882</v>
       </c>
       <c r="AB10" t="n">
-        <v>182.5350875878307</v>
+        <v>221.857312133658</v>
       </c>
       <c r="AC10" t="n">
-        <v>165.1141950181037</v>
+        <v>200.6835616423786</v>
       </c>
       <c r="AD10" t="n">
-        <v>133408.2751280472</v>
+        <v>162147.4628654882</v>
       </c>
       <c r="AE10" t="n">
-        <v>182535.0875878307</v>
+        <v>221857.312133658</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.635109018735605e-06</v>
+        <v>6.554961772769353e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.080246913580247</v>
       </c>
       <c r="AH10" t="n">
-        <v>165114.1950181038</v>
+        <v>200683.5616423786</v>
       </c>
     </row>
     <row r="11">
@@ -25067,28 +25067,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>131.8777614526797</v>
+        <v>160.6169491901207</v>
       </c>
       <c r="AB11" t="n">
-        <v>180.440971255696</v>
+        <v>219.7631958015233</v>
       </c>
       <c r="AC11" t="n">
-        <v>163.2199382095966</v>
+        <v>198.7893048338715</v>
       </c>
       <c r="AD11" t="n">
-        <v>131877.7614526797</v>
+        <v>160616.9491901207</v>
       </c>
       <c r="AE11" t="n">
-        <v>180440.971255696</v>
+        <v>219763.1958015233</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.643699678440835e-06</v>
+        <v>6.5704527651111e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.064814814814815</v>
       </c>
       <c r="AH11" t="n">
-        <v>163219.9382095966</v>
+        <v>198789.3048338715</v>
       </c>
     </row>
     <row r="12">
@@ -25173,28 +25173,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>131.7772731326427</v>
+        <v>160.5164608700837</v>
       </c>
       <c r="AB12" t="n">
-        <v>180.3034787029896</v>
+        <v>219.6257032488169</v>
       </c>
       <c r="AC12" t="n">
-        <v>163.0955677531484</v>
+        <v>198.6649343774233</v>
       </c>
       <c r="AD12" t="n">
-        <v>131777.2731326427</v>
+        <v>160516.4608700837</v>
       </c>
       <c r="AE12" t="n">
-        <v>180303.4787029896</v>
+        <v>219625.7032488169</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.654695722863529e-06</v>
+        <v>6.590281235308537e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.045524691358025</v>
       </c>
       <c r="AH12" t="n">
-        <v>163095.5677531484</v>
+        <v>198664.9343774233</v>
       </c>
     </row>
   </sheetData>
@@ -25470,28 +25470,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>168.1408983015133</v>
+        <v>205.1477802994178</v>
       </c>
       <c r="AB2" t="n">
-        <v>230.0577949089336</v>
+        <v>280.6922434868497</v>
       </c>
       <c r="AC2" t="n">
-        <v>208.1014018510344</v>
+        <v>253.9033697225853</v>
       </c>
       <c r="AD2" t="n">
-        <v>168140.8983015133</v>
+        <v>205147.7802994178</v>
       </c>
       <c r="AE2" t="n">
-        <v>230057.7949089336</v>
+        <v>280692.2434868497</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.006020335748184e-06</v>
+        <v>5.608273093935841e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.65817901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>208101.4018510344</v>
+        <v>253903.3697225853</v>
       </c>
     </row>
     <row r="3">
@@ -25576,28 +25576,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>136.905446637313</v>
+        <v>173.8269877806459</v>
       </c>
       <c r="AB3" t="n">
-        <v>187.320071931124</v>
+        <v>237.8377533868424</v>
       </c>
       <c r="AC3" t="n">
-        <v>169.4425071714424</v>
+        <v>215.1388520110544</v>
       </c>
       <c r="AD3" t="n">
-        <v>136905.4466373131</v>
+        <v>173826.9877806459</v>
       </c>
       <c r="AE3" t="n">
-        <v>187320.071931124</v>
+        <v>237837.7533868424</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.476180815744045e-06</v>
+        <v>6.485442266225044e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.62037037037037</v>
       </c>
       <c r="AH3" t="n">
-        <v>169442.5071714424</v>
+        <v>215138.8520110544</v>
       </c>
     </row>
     <row r="4">
@@ -25682,28 +25682,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>130.0494429898102</v>
+        <v>157.719353142218</v>
       </c>
       <c r="AB4" t="n">
-        <v>177.9393852750813</v>
+        <v>215.7985770558691</v>
       </c>
       <c r="AC4" t="n">
-        <v>160.957100083973</v>
+        <v>195.203063736924</v>
       </c>
       <c r="AD4" t="n">
-        <v>130049.4429898102</v>
+        <v>157719.353142218</v>
       </c>
       <c r="AE4" t="n">
-        <v>177939.3852750813</v>
+        <v>215798.5770558692</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.643818291798907e-06</v>
+        <v>6.798200212441597e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.315586419753087</v>
       </c>
       <c r="AH4" t="n">
-        <v>160957.100083973</v>
+        <v>195203.0637369239</v>
       </c>
     </row>
     <row r="5">
@@ -25788,28 +25788,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>126.1692459053973</v>
+        <v>153.8391560578051</v>
       </c>
       <c r="AB5" t="n">
-        <v>172.6303284419763</v>
+        <v>210.4895202227642</v>
       </c>
       <c r="AC5" t="n">
-        <v>156.1547321837098</v>
+        <v>190.4006958366607</v>
       </c>
       <c r="AD5" t="n">
-        <v>126169.2459053973</v>
+        <v>153839.1560578051</v>
       </c>
       <c r="AE5" t="n">
-        <v>172630.3284419763</v>
+        <v>210489.5202227642</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.728412576868585e-06</v>
+        <v>6.956026108432727e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.172839506172839</v>
       </c>
       <c r="AH5" t="n">
-        <v>156154.7321837098</v>
+        <v>190400.6958366607</v>
       </c>
     </row>
     <row r="6">
@@ -25894,28 +25894,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>123.7469272633834</v>
+        <v>151.4168374157912</v>
       </c>
       <c r="AB6" t="n">
-        <v>169.3160052108182</v>
+        <v>207.1751969916061</v>
       </c>
       <c r="AC6" t="n">
-        <v>153.1567233100506</v>
+        <v>187.4026869630015</v>
       </c>
       <c r="AD6" t="n">
-        <v>123746.9272633834</v>
+        <v>151416.8374157912</v>
       </c>
       <c r="AE6" t="n">
-        <v>169316.0052108183</v>
+        <v>207175.1969916061</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.771604581375247e-06</v>
+        <v>7.036608582831582e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.103395061728396</v>
       </c>
       <c r="AH6" t="n">
-        <v>153156.7233100506</v>
+        <v>187402.6869630015</v>
       </c>
     </row>
     <row r="7">
@@ -26000,28 +26000,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>121.365194773018</v>
+        <v>149.0351049254258</v>
       </c>
       <c r="AB7" t="n">
-        <v>166.0572137428802</v>
+        <v>203.9164055236681</v>
       </c>
       <c r="AC7" t="n">
-        <v>150.2089463260689</v>
+        <v>184.4549099790199</v>
       </c>
       <c r="AD7" t="n">
-        <v>121365.194773018</v>
+        <v>149035.1049254258</v>
       </c>
       <c r="AE7" t="n">
-        <v>166057.2137428802</v>
+        <v>203916.4055236681</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.808651867008723e-06</v>
+        <v>7.105726975927838e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>150208.946326069</v>
+        <v>184454.9099790199</v>
       </c>
     </row>
     <row r="8">
@@ -26106,28 +26106,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>120.8964981034926</v>
+        <v>148.5664082559005</v>
       </c>
       <c r="AB8" t="n">
-        <v>165.4159222821982</v>
+        <v>203.2751140629861</v>
       </c>
       <c r="AC8" t="n">
-        <v>149.628858822336</v>
+        <v>183.8748224752869</v>
       </c>
       <c r="AD8" t="n">
-        <v>120896.4981034926</v>
+        <v>148566.4082559005</v>
       </c>
       <c r="AE8" t="n">
-        <v>165415.9222821982</v>
+        <v>203275.1140629861</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.815393160529791e-06</v>
+        <v>7.118304074832633e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.033950617283951</v>
       </c>
       <c r="AH8" t="n">
-        <v>149628.858822336</v>
+        <v>183874.822475287</v>
       </c>
     </row>
   </sheetData>
@@ -49096,28 +49096,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>145.1926501128855</v>
+        <v>172.0932075609143</v>
       </c>
       <c r="AB2" t="n">
-        <v>198.6589893320107</v>
+        <v>235.4655188012218</v>
       </c>
       <c r="AC2" t="n">
-        <v>179.6992542098626</v>
+        <v>212.9930201648325</v>
       </c>
       <c r="AD2" t="n">
-        <v>145192.6501128855</v>
+        <v>172093.2075609143</v>
       </c>
       <c r="AE2" t="n">
-        <v>198658.9893320107</v>
+        <v>235465.5188012218</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.321882015541693e-06</v>
+        <v>6.388102303256354e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.16820987654321</v>
       </c>
       <c r="AH2" t="n">
-        <v>179699.2542098626</v>
+        <v>212993.0201648325</v>
       </c>
     </row>
     <row r="3">
@@ -49202,28 +49202,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>121.1941310261104</v>
+        <v>148.0093476195676</v>
       </c>
       <c r="AB3" t="n">
-        <v>165.8231567775615</v>
+        <v>202.5129191245751</v>
       </c>
       <c r="AC3" t="n">
-        <v>149.9972274290192</v>
+        <v>183.1853703520503</v>
       </c>
       <c r="AD3" t="n">
-        <v>121194.1310261104</v>
+        <v>148009.3476195676</v>
       </c>
       <c r="AE3" t="n">
-        <v>165823.1567775615</v>
+        <v>202512.9191245751</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.728014614640302e-06</v>
+        <v>7.16911035218498e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.385030864197531</v>
       </c>
       <c r="AH3" t="n">
-        <v>149997.2274290192</v>
+        <v>183185.3703520503</v>
       </c>
     </row>
     <row r="4">
@@ -49308,28 +49308,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>115.8605652762452</v>
+        <v>142.6757818697024</v>
       </c>
       <c r="AB4" t="n">
-        <v>158.5255368182854</v>
+        <v>195.2152991652989</v>
       </c>
       <c r="AC4" t="n">
-        <v>143.3960820763801</v>
+        <v>176.5842249994112</v>
       </c>
       <c r="AD4" t="n">
-        <v>115860.5652762452</v>
+        <v>142675.7818697024</v>
       </c>
       <c r="AE4" t="n">
-        <v>158525.5368182854</v>
+        <v>195215.2991652989</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.869337157101298e-06</v>
+        <v>7.440878842087207e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.153549382716049</v>
       </c>
       <c r="AH4" t="n">
-        <v>143396.0820763801</v>
+        <v>176584.2249994112</v>
       </c>
     </row>
     <row r="5">
@@ -49414,28 +49414,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>112.7554226337096</v>
+        <v>139.5706392271668</v>
       </c>
       <c r="AB5" t="n">
-        <v>154.2769436655452</v>
+        <v>190.9667060125587</v>
       </c>
       <c r="AC5" t="n">
-        <v>139.5529686911981</v>
+        <v>172.7411116142293</v>
       </c>
       <c r="AD5" t="n">
-        <v>112755.4226337096</v>
+        <v>139570.6392271668</v>
       </c>
       <c r="AE5" t="n">
-        <v>154276.9436655452</v>
+        <v>190966.7060125587</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.925681035383782e-06</v>
+        <v>7.549230209458706e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.064814814814815</v>
       </c>
       <c r="AH5" t="n">
-        <v>139552.9686911981</v>
+        <v>172741.1116142292</v>
       </c>
     </row>
     <row r="6">
@@ -49520,28 +49520,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>112.7444237972179</v>
+        <v>139.559640390675</v>
       </c>
       <c r="AB6" t="n">
-        <v>154.2618945722227</v>
+        <v>190.9516569192363</v>
       </c>
       <c r="AC6" t="n">
-        <v>139.5393558622208</v>
+        <v>172.727498785252</v>
       </c>
       <c r="AD6" t="n">
-        <v>112744.4237972179</v>
+        <v>139559.640390675</v>
       </c>
       <c r="AE6" t="n">
-        <v>154261.8945722227</v>
+        <v>190951.6569192363</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.93401227696991e-06</v>
+        <v>7.565251495981326e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.05324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>139539.3558622208</v>
+        <v>172727.498785252</v>
       </c>
     </row>
   </sheetData>
@@ -49817,28 +49817,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.64633282578457</v>
+        <v>124.7672817300716</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.3405086581253</v>
+        <v>170.7120992070023</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.3283618669361</v>
+        <v>154.4195760546695</v>
       </c>
       <c r="AD2" t="n">
-        <v>99646.33282578457</v>
+        <v>124767.2817300716</v>
       </c>
       <c r="AE2" t="n">
-        <v>136340.5086581254</v>
+        <v>170712.0992070023</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.972020267254242e-06</v>
+        <v>8.192686307677659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.435185185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>123328.3618669361</v>
+        <v>154419.5760546695</v>
       </c>
     </row>
     <row r="3">
@@ -49923,28 +49923,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.80025178217031</v>
+        <v>120.9212006864573</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.0781308971345</v>
+        <v>165.4497214460115</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.568218053659</v>
+        <v>149.6594322413924</v>
       </c>
       <c r="AD3" t="n">
-        <v>95800.25178217031</v>
+        <v>120921.2006864573</v>
       </c>
       <c r="AE3" t="n">
-        <v>131078.1308971345</v>
+        <v>165449.7214460115</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.129663775117987e-06</v>
+        <v>8.517841700014659e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.188271604938271</v>
       </c>
       <c r="AH3" t="n">
-        <v>118568.218053659</v>
+        <v>149659.4322413924</v>
       </c>
     </row>
   </sheetData>
@@ -50220,28 +50220,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>262.6256783036223</v>
+        <v>312.0062159539671</v>
       </c>
       <c r="AB2" t="n">
-        <v>359.3360392822289</v>
+        <v>426.9006694109997</v>
       </c>
       <c r="AC2" t="n">
-        <v>325.0415120244309</v>
+        <v>386.1578686812658</v>
       </c>
       <c r="AD2" t="n">
-        <v>262625.6783036223</v>
+        <v>312006.2159539671</v>
       </c>
       <c r="AE2" t="n">
-        <v>359336.0392822289</v>
+        <v>426900.6694109997</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.311886611786405e-06</v>
+        <v>4.061893578124144e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.243827160493828</v>
       </c>
       <c r="AH2" t="n">
-        <v>325041.5120244308</v>
+        <v>386157.8686812657</v>
       </c>
     </row>
     <row r="3">
@@ -50326,28 +50326,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>190.2107359564402</v>
+        <v>229.681047636597</v>
       </c>
       <c r="AB3" t="n">
-        <v>260.2547204409098</v>
+        <v>314.2597421889294</v>
       </c>
       <c r="AC3" t="n">
-        <v>235.4163751918996</v>
+        <v>284.2672334608293</v>
       </c>
       <c r="AD3" t="n">
-        <v>190210.7359564402</v>
+        <v>229681.047636597</v>
       </c>
       <c r="AE3" t="n">
-        <v>260254.7204409098</v>
+        <v>314259.7421889293</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.913621906587912e-06</v>
+        <v>5.119118753971436e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.334104938271606</v>
       </c>
       <c r="AH3" t="n">
-        <v>235416.3751918996</v>
+        <v>284267.2334608294</v>
       </c>
     </row>
     <row r="4">
@@ -50432,28 +50432,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>167.2807458984461</v>
+        <v>206.8363089246235</v>
       </c>
       <c r="AB4" t="n">
-        <v>228.8808964438118</v>
+        <v>283.0025628444806</v>
       </c>
       <c r="AC4" t="n">
-        <v>207.0368249236361</v>
+        <v>255.9931954432781</v>
       </c>
       <c r="AD4" t="n">
-        <v>167280.7458984461</v>
+        <v>206836.3089246235</v>
       </c>
       <c r="AE4" t="n">
-        <v>228880.8964438118</v>
+        <v>283002.5628444806</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.133366352365099e-06</v>
+        <v>5.505201076772338e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.820987654320988</v>
       </c>
       <c r="AH4" t="n">
-        <v>207036.8249236361</v>
+        <v>255993.1954432781</v>
       </c>
     </row>
     <row r="5">
@@ -50538,28 +50538,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>161.2001488657318</v>
+        <v>191.0161676308652</v>
       </c>
       <c r="AB5" t="n">
-        <v>220.5611553266478</v>
+        <v>261.3567475909952</v>
       </c>
       <c r="AC5" t="n">
-        <v>199.5111082218616</v>
+        <v>236.413226417486</v>
       </c>
       <c r="AD5" t="n">
-        <v>161200.1488657318</v>
+        <v>191016.1676308652</v>
       </c>
       <c r="AE5" t="n">
-        <v>220561.1553266479</v>
+        <v>261356.7475909952</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.243210878701414e-06</v>
+        <v>5.698193576423004e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.589506172839505</v>
       </c>
       <c r="AH5" t="n">
-        <v>199511.1082218616</v>
+        <v>236413.226417486</v>
       </c>
     </row>
     <row r="6">
@@ -50644,28 +50644,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>156.9130368516516</v>
+        <v>186.5584634161929</v>
       </c>
       <c r="AB6" t="n">
-        <v>214.6953395349527</v>
+        <v>255.2575200244532</v>
       </c>
       <c r="AC6" t="n">
-        <v>194.2051176565998</v>
+        <v>230.8961005695731</v>
       </c>
       <c r="AD6" t="n">
-        <v>156913.0368516516</v>
+        <v>186558.4634161929</v>
       </c>
       <c r="AE6" t="n">
-        <v>214695.3395349527</v>
+        <v>255257.5200244532</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.324860314818271e-06</v>
+        <v>5.841648414791678e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.427469135802469</v>
       </c>
       <c r="AH6" t="n">
-        <v>194205.1176565998</v>
+        <v>230896.1005695731</v>
       </c>
     </row>
     <row r="7">
@@ -50750,28 +50750,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>154.3347179943806</v>
+        <v>183.9801445589219</v>
       </c>
       <c r="AB7" t="n">
-        <v>211.1675699270361</v>
+        <v>251.7297504165366</v>
       </c>
       <c r="AC7" t="n">
-        <v>191.0140334288059</v>
+        <v>227.7050163417793</v>
       </c>
       <c r="AD7" t="n">
-        <v>154334.7179943806</v>
+        <v>183980.1445589219</v>
       </c>
       <c r="AE7" t="n">
-        <v>211167.5699270361</v>
+        <v>251729.7504165366</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.369507157091125e-06</v>
+        <v>5.920091155446462e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.342592592592593</v>
       </c>
       <c r="AH7" t="n">
-        <v>191014.0334288059</v>
+        <v>227705.0163417793</v>
       </c>
     </row>
     <row r="8">
@@ -50856,28 +50856,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>152.137909651737</v>
+        <v>181.7833362162782</v>
       </c>
       <c r="AB8" t="n">
-        <v>208.1617998362886</v>
+        <v>248.7239803257891</v>
       </c>
       <c r="AC8" t="n">
-        <v>188.2951298168935</v>
+        <v>224.9861127298669</v>
       </c>
       <c r="AD8" t="n">
-        <v>152137.909651737</v>
+        <v>181783.3362162782</v>
       </c>
       <c r="AE8" t="n">
-        <v>208161.7998362886</v>
+        <v>248723.980325789</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.40595581988956e-06</v>
+        <v>5.984130018164636e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.273148148148149</v>
       </c>
       <c r="AH8" t="n">
-        <v>188295.1298168935</v>
+        <v>224986.1127298669</v>
       </c>
     </row>
     <row r="9">
@@ -50962,28 +50962,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>150.5262100268218</v>
+        <v>180.171636591363</v>
       </c>
       <c r="AB9" t="n">
-        <v>205.9566013063114</v>
+        <v>246.5187817958119</v>
       </c>
       <c r="AC9" t="n">
-        <v>186.3003923396012</v>
+        <v>222.9913752525745</v>
       </c>
       <c r="AD9" t="n">
-        <v>150526.2100268218</v>
+        <v>180171.636591363</v>
       </c>
       <c r="AE9" t="n">
-        <v>205956.6013063114</v>
+        <v>246518.781795812</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.428500813444214e-06</v>
+        <v>6.023740682490314e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.234567901234568</v>
       </c>
       <c r="AH9" t="n">
-        <v>186300.3923396012</v>
+        <v>222991.3752525745</v>
       </c>
     </row>
     <row r="10">
@@ -51068,28 +51068,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>149.1098603305749</v>
+        <v>178.7552868951161</v>
       </c>
       <c r="AB10" t="n">
-        <v>204.0186891669687</v>
+        <v>244.5808696564692</v>
       </c>
       <c r="AC10" t="n">
-        <v>184.5474318149599</v>
+        <v>221.2384147279332</v>
       </c>
       <c r="AD10" t="n">
-        <v>149109.8603305749</v>
+        <v>178755.2868951161</v>
       </c>
       <c r="AE10" t="n">
-        <v>204018.6891669687</v>
+        <v>244580.8696564692</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.44301380683812e-06</v>
+        <v>6.049239439378098e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.207561728395062</v>
       </c>
       <c r="AH10" t="n">
-        <v>184547.4318149599</v>
+        <v>221238.4147279332</v>
       </c>
     </row>
     <row r="11">
@@ -51174,28 +51174,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>147.2354115490349</v>
+        <v>176.8808381135761</v>
       </c>
       <c r="AB11" t="n">
-        <v>201.4539856492231</v>
+        <v>242.0161661387235</v>
       </c>
       <c r="AC11" t="n">
-        <v>182.2275000013631</v>
+        <v>218.9184829143365</v>
       </c>
       <c r="AD11" t="n">
-        <v>147235.4115490349</v>
+        <v>176880.8381135761</v>
       </c>
       <c r="AE11" t="n">
-        <v>201453.9856492231</v>
+        <v>242016.1661387236</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.469657890129984e-06</v>
+        <v>6.09605204267208e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH11" t="n">
-        <v>182227.5000013631</v>
+        <v>218918.4829143365</v>
       </c>
     </row>
     <row r="12">
@@ -51280,28 +51280,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>146.0514038753831</v>
+        <v>175.6968304399244</v>
       </c>
       <c r="AB12" t="n">
-        <v>199.8339741154016</v>
+        <v>240.3961546049021</v>
       </c>
       <c r="AC12" t="n">
-        <v>180.7621000946285</v>
+        <v>217.4530830076019</v>
       </c>
       <c r="AD12" t="n">
-        <v>146051.4038753831</v>
+        <v>175696.8304399243</v>
       </c>
       <c r="AE12" t="n">
-        <v>199833.9741154016</v>
+        <v>240396.1546049021</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.482342911073513e-06</v>
+        <v>6.118339124074e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.138117283950617</v>
       </c>
       <c r="AH12" t="n">
-        <v>180762.1000946285</v>
+        <v>217453.0830076019</v>
       </c>
     </row>
     <row r="13">
@@ -51386,28 +51386,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>144.651138694742</v>
+        <v>174.2965652592832</v>
       </c>
       <c r="AB13" t="n">
-        <v>197.9180695199094</v>
+        <v>238.4802500094099</v>
       </c>
       <c r="AC13" t="n">
-        <v>179.0290467447405</v>
+        <v>215.7200296577139</v>
       </c>
       <c r="AD13" t="n">
-        <v>144651.138694742</v>
+        <v>174296.5652592832</v>
       </c>
       <c r="AE13" t="n">
-        <v>197918.0695199094</v>
+        <v>238480.2500094099</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.492646028521094e-06</v>
+        <v>6.136441294994334e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH13" t="n">
-        <v>179029.0467447405</v>
+        <v>215720.0296577139</v>
       </c>
     </row>
     <row r="14">
@@ -51492,28 +51492,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>143.9756301945766</v>
+        <v>173.6210567591179</v>
       </c>
       <c r="AB14" t="n">
-        <v>196.9938089886519</v>
+        <v>237.5559894781524</v>
       </c>
       <c r="AC14" t="n">
-        <v>178.1929963413781</v>
+        <v>214.8839792543515</v>
       </c>
       <c r="AD14" t="n">
-        <v>143975.6301945766</v>
+        <v>173621.0567591179</v>
       </c>
       <c r="AE14" t="n">
-        <v>196993.8089886519</v>
+        <v>237555.9894781524</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.493587711298561e-06</v>
+        <v>6.138095794487052e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.118827160493827</v>
       </c>
       <c r="AH14" t="n">
-        <v>178192.9963413781</v>
+        <v>214883.9792543515</v>
       </c>
     </row>
     <row r="15">
@@ -51598,28 +51598,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>142.727229963285</v>
+        <v>172.3726565278262</v>
       </c>
       <c r="AB15" t="n">
-        <v>195.2856927166683</v>
+        <v>235.8478732061688</v>
       </c>
       <c r="AC15" t="n">
-        <v>176.6479002890359</v>
+        <v>213.3388832020093</v>
       </c>
       <c r="AD15" t="n">
-        <v>142727.229963285</v>
+        <v>172372.6565278262</v>
       </c>
       <c r="AE15" t="n">
-        <v>195285.6927166683</v>
+        <v>235847.8732061688</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.508100704692467e-06</v>
+        <v>6.163594551374837e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.09182098765432</v>
       </c>
       <c r="AH15" t="n">
-        <v>176647.9002890359</v>
+        <v>213338.8832020093</v>
       </c>
     </row>
     <row r="16">
@@ -51704,28 +51704,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>142.2811908455342</v>
+        <v>171.9266174100754</v>
       </c>
       <c r="AB16" t="n">
-        <v>194.6754023179049</v>
+        <v>235.2375828074054</v>
       </c>
       <c r="AC16" t="n">
-        <v>176.0958551493823</v>
+        <v>212.7868380623557</v>
       </c>
       <c r="AD16" t="n">
-        <v>142281.1908455341</v>
+        <v>171926.6174100754</v>
       </c>
       <c r="AE16" t="n">
-        <v>194675.4023179049</v>
+        <v>235237.5828074054</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.503835435641586e-06</v>
+        <v>6.156100641907816e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.099537037037037</v>
       </c>
       <c r="AH16" t="n">
-        <v>176095.8551493823</v>
+        <v>212786.8380623556</v>
       </c>
     </row>
     <row r="17">
@@ -51810,28 +51810,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>142.6633520089255</v>
+        <v>172.3087785734666</v>
       </c>
       <c r="AB17" t="n">
-        <v>195.1982920814172</v>
+        <v>235.7604725709177</v>
       </c>
       <c r="AC17" t="n">
-        <v>176.5688410477456</v>
+        <v>213.2598239607189</v>
       </c>
       <c r="AD17" t="n">
-        <v>142663.3520089255</v>
+        <v>172308.7785734666</v>
       </c>
       <c r="AE17" t="n">
-        <v>195198.2920814172</v>
+        <v>235760.4725709177</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.503281504596017e-06</v>
+        <v>6.155127406912099e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.099537037037037</v>
       </c>
       <c r="AH17" t="n">
-        <v>176568.8410477456</v>
+        <v>213259.8239607189</v>
       </c>
     </row>
   </sheetData>
@@ -52107,28 +52107,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>337.7440769274594</v>
+        <v>389.1189516441087</v>
       </c>
       <c r="AB2" t="n">
-        <v>462.1163462692205</v>
+        <v>532.4097163560511</v>
       </c>
       <c r="AC2" t="n">
-        <v>418.0126107656507</v>
+        <v>481.5972802687589</v>
       </c>
       <c r="AD2" t="n">
-        <v>337744.0769274594</v>
+        <v>389118.9516441087</v>
       </c>
       <c r="AE2" t="n">
-        <v>462116.3462692205</v>
+        <v>532409.7163560512</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.950932925577992e-06</v>
+        <v>3.335877886099637e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.55555555555556</v>
       </c>
       <c r="AH2" t="n">
-        <v>418012.6107656507</v>
+        <v>481597.2802687589</v>
       </c>
     </row>
     <row r="3">
@@ -52213,28 +52213,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>220.2742157024502</v>
+        <v>261.3058427921152</v>
       </c>
       <c r="AB3" t="n">
-        <v>301.3888997365005</v>
+        <v>357.5301821083517</v>
       </c>
       <c r="AC3" t="n">
-        <v>272.6247661477154</v>
+        <v>323.408003324692</v>
       </c>
       <c r="AD3" t="n">
-        <v>220274.2157024503</v>
+        <v>261305.8427921152</v>
       </c>
       <c r="AE3" t="n">
-        <v>301388.8997365005</v>
+        <v>357530.1821083517</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.623609516678538e-06</v>
+        <v>4.486079892190847e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.851080246913581</v>
       </c>
       <c r="AH3" t="n">
-        <v>272624.7661477154</v>
+        <v>323408.003324692</v>
       </c>
     </row>
     <row r="4">
@@ -52319,28 +52319,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>201.3857682745697</v>
+        <v>232.159578100367</v>
       </c>
       <c r="AB4" t="n">
-        <v>275.5448926661982</v>
+        <v>317.6509769145047</v>
       </c>
       <c r="AC4" t="n">
-        <v>249.2472748399028</v>
+        <v>287.3348135038247</v>
       </c>
       <c r="AD4" t="n">
-        <v>201385.7682745697</v>
+        <v>232159.578100367</v>
       </c>
       <c r="AE4" t="n">
-        <v>275544.8926661981</v>
+        <v>317650.9769145047</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.87299414083516e-06</v>
+        <v>4.912499807478749e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>8</v>
+        <v>7.16820987654321</v>
       </c>
       <c r="AH4" t="n">
-        <v>249247.2748399028</v>
+        <v>287334.8135038247</v>
       </c>
     </row>
     <row r="5">
@@ -52425,28 +52425,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>182.8150195961094</v>
+        <v>223.7613058311995</v>
       </c>
       <c r="AB5" t="n">
-        <v>250.1355750407319</v>
+        <v>306.1600902902118</v>
       </c>
       <c r="AC5" t="n">
-        <v>226.2629868264017</v>
+        <v>276.94060097139</v>
       </c>
       <c r="AD5" t="n">
-        <v>182815.0195961094</v>
+        <v>223761.3058311995</v>
       </c>
       <c r="AE5" t="n">
-        <v>250135.5750407319</v>
+        <v>306160.0902902118</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.998647266962019e-06</v>
+        <v>5.127352650070298e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.867283950617284</v>
       </c>
       <c r="AH5" t="n">
-        <v>226262.9868264017</v>
+        <v>276940.60097139</v>
       </c>
     </row>
     <row r="6">
@@ -52531,28 +52531,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>177.2362751899353</v>
+        <v>218.1825614250253</v>
       </c>
       <c r="AB6" t="n">
-        <v>242.5024908273751</v>
+        <v>298.527006076855</v>
       </c>
       <c r="AC6" t="n">
-        <v>219.3583934572643</v>
+        <v>270.0360076022526</v>
       </c>
       <c r="AD6" t="n">
-        <v>177236.2751899353</v>
+        <v>218182.5614250253</v>
       </c>
       <c r="AE6" t="n">
-        <v>242502.4908273751</v>
+        <v>298527.006076855</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.089177301758602e-06</v>
+        <v>5.28214892068851e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.666666666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>219358.3934572643</v>
+        <v>270036.0076022526</v>
       </c>
     </row>
     <row r="7">
@@ -52637,28 +52637,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>174.1384907274219</v>
+        <v>204.9975518992398</v>
       </c>
       <c r="AB7" t="n">
-        <v>238.2639654611613</v>
+        <v>280.486694362117</v>
       </c>
       <c r="AC7" t="n">
-        <v>215.5243870031927</v>
+        <v>253.7174379178269</v>
       </c>
       <c r="AD7" t="n">
-        <v>174138.4907274219</v>
+        <v>204997.5518992398</v>
       </c>
       <c r="AE7" t="n">
-        <v>238263.9654611612</v>
+        <v>280486.694362117</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.137431518419044e-06</v>
+        <v>5.364658253612366e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.562500000000001</v>
       </c>
       <c r="AH7" t="n">
-        <v>215524.3870031927</v>
+        <v>253717.4379178269</v>
       </c>
     </row>
     <row r="8">
@@ -52743,28 +52743,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>171.2684540558711</v>
+        <v>201.9569230270968</v>
       </c>
       <c r="AB8" t="n">
-        <v>234.3370546700657</v>
+        <v>276.3263717961746</v>
       </c>
       <c r="AC8" t="n">
-        <v>211.9722550665442</v>
+        <v>249.9541706985273</v>
       </c>
       <c r="AD8" t="n">
-        <v>171268.4540558711</v>
+        <v>201956.9230270968</v>
       </c>
       <c r="AE8" t="n">
-        <v>234337.0546700657</v>
+        <v>276326.3717961746</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.184885056705696e-06</v>
+        <v>5.445798515746558e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.46604938271605</v>
       </c>
       <c r="AH8" t="n">
-        <v>211972.2550665442</v>
+        <v>249954.1706985274</v>
       </c>
     </row>
     <row r="9">
@@ -52849,28 +52849,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>169.307587658532</v>
+        <v>199.9960566297578</v>
       </c>
       <c r="AB9" t="n">
-        <v>231.6541107579077</v>
+        <v>273.6434278840165</v>
       </c>
       <c r="AC9" t="n">
-        <v>209.5453675558262</v>
+        <v>247.5272831878093</v>
       </c>
       <c r="AD9" t="n">
-        <v>169307.587658532</v>
+        <v>199996.0566297577</v>
       </c>
       <c r="AE9" t="n">
-        <v>231654.1107579076</v>
+        <v>273643.4278840165</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.214296642302935e-06</v>
+        <v>5.496089049420283e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.40817901234568</v>
       </c>
       <c r="AH9" t="n">
-        <v>209545.3675558262</v>
+        <v>247527.2831878093</v>
       </c>
     </row>
     <row r="10">
@@ -52955,28 +52955,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>167.814441590842</v>
+        <v>198.5029105620677</v>
       </c>
       <c r="AB10" t="n">
-        <v>229.6111224351397</v>
+        <v>271.6004395612486</v>
       </c>
       <c r="AC10" t="n">
-        <v>207.6973591712305</v>
+        <v>245.6792748032137</v>
       </c>
       <c r="AD10" t="n">
-        <v>167814.441590842</v>
+        <v>198502.9105620677</v>
       </c>
       <c r="AE10" t="n">
-        <v>229611.1224351397</v>
+        <v>271600.4395612486</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.23554130848751e-06</v>
+        <v>5.532415061039413e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.365740740740741</v>
       </c>
       <c r="AH10" t="n">
-        <v>207697.3591712305</v>
+        <v>245679.2748032137</v>
       </c>
     </row>
     <row r="11">
@@ -53061,28 +53061,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>166.5873340830992</v>
+        <v>197.2758030543249</v>
       </c>
       <c r="AB11" t="n">
-        <v>227.9321398068844</v>
+        <v>269.9214569329933</v>
       </c>
       <c r="AC11" t="n">
-        <v>206.1786162885484</v>
+        <v>244.1605319205316</v>
       </c>
       <c r="AD11" t="n">
-        <v>166587.3340830992</v>
+        <v>197275.8030543249</v>
       </c>
       <c r="AE11" t="n">
-        <v>227932.1398068844</v>
+        <v>269921.4569329933</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.247231212744851e-06</v>
+        <v>5.552403494568534e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.342592592592593</v>
       </c>
       <c r="AH11" t="n">
-        <v>206178.6162885484</v>
+        <v>244160.5319205316</v>
       </c>
     </row>
     <row r="12">
@@ -53167,28 +53167,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>164.7214948859973</v>
+        <v>195.409963857223</v>
       </c>
       <c r="AB12" t="n">
-        <v>225.3792163023949</v>
+        <v>267.3685334285038</v>
       </c>
       <c r="AC12" t="n">
-        <v>203.869340220276</v>
+        <v>241.8512558522591</v>
       </c>
       <c r="AD12" t="n">
-        <v>164721.4948859973</v>
+        <v>195409.963857223</v>
       </c>
       <c r="AE12" t="n">
-        <v>225379.2163023949</v>
+        <v>267368.5334285038</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.277923883740155e-06</v>
+        <v>5.604884541505722e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.280864197530865</v>
       </c>
       <c r="AH12" t="n">
-        <v>203869.340220276</v>
+        <v>241851.2558522591</v>
       </c>
     </row>
     <row r="13">
@@ -53273,28 +53273,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>163.6005674709577</v>
+        <v>194.2890364421834</v>
       </c>
       <c r="AB13" t="n">
-        <v>223.8455139613112</v>
+        <v>265.8348310874201</v>
       </c>
       <c r="AC13" t="n">
-        <v>202.48201227806</v>
+        <v>240.4639279100431</v>
       </c>
       <c r="AD13" t="n">
-        <v>163600.5674709577</v>
+        <v>194289.0364421834</v>
       </c>
       <c r="AE13" t="n">
-        <v>223845.5139613112</v>
+        <v>265834.8310874201</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.28929351664798e-06</v>
+        <v>5.624325346718978e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.261574074074074</v>
       </c>
       <c r="AH13" t="n">
-        <v>202482.01227806</v>
+        <v>240463.9279100431</v>
       </c>
     </row>
     <row r="14">
@@ -53379,28 +53379,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>162.538992848322</v>
+        <v>193.2274618195476</v>
       </c>
       <c r="AB14" t="n">
-        <v>222.3930207292546</v>
+        <v>264.3823378553635</v>
       </c>
       <c r="AC14" t="n">
-        <v>201.1681429614834</v>
+        <v>239.1500585934665</v>
       </c>
       <c r="AD14" t="n">
-        <v>162538.9928483219</v>
+        <v>193227.4618195476</v>
       </c>
       <c r="AE14" t="n">
-        <v>222393.0207292546</v>
+        <v>264382.3378553635</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.300342878206289e-06</v>
+        <v>5.643218523616364e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH14" t="n">
-        <v>201168.1429614834</v>
+        <v>239150.0585934665</v>
       </c>
     </row>
     <row r="15">
@@ -53485,28 +53485,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>161.9369100992453</v>
+        <v>192.625379070471</v>
       </c>
       <c r="AB15" t="n">
-        <v>221.569224549952</v>
+        <v>263.5585416760609</v>
       </c>
       <c r="AC15" t="n">
-        <v>200.422968733328</v>
+        <v>238.4048843653111</v>
       </c>
       <c r="AD15" t="n">
-        <v>161936.9100992453</v>
+        <v>192625.379070471</v>
       </c>
       <c r="AE15" t="n">
-        <v>221569.224549952</v>
+        <v>263558.5416760609</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.300769906672311e-06</v>
+        <v>5.643948694704185e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>7</v>
+        <v>6.238425925925927</v>
       </c>
       <c r="AH15" t="n">
-        <v>200422.968733328</v>
+        <v>238404.8843653112</v>
       </c>
     </row>
     <row r="16">
@@ -53591,28 +53591,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>161.0969234631034</v>
+        <v>191.7853924343291</v>
       </c>
       <c r="AB16" t="n">
-        <v>220.4199177767883</v>
+        <v>262.4092349028971</v>
       </c>
       <c r="AC16" t="n">
-        <v>199.3833501855325</v>
+        <v>237.3652658175156</v>
       </c>
       <c r="AD16" t="n">
-        <v>161096.9234631034</v>
+        <v>191785.3924343291</v>
       </c>
       <c r="AE16" t="n">
-        <v>220419.9177767883</v>
+        <v>262409.2349028972</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.313260489303443e-06</v>
+        <v>5.665306199022972e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH16" t="n">
-        <v>199383.3501855325</v>
+        <v>237365.2658175156</v>
       </c>
     </row>
     <row r="17">
@@ -53697,28 +53697,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>160.0293080468362</v>
+        <v>190.7177770180619</v>
       </c>
       <c r="AB17" t="n">
-        <v>218.9591592643843</v>
+        <v>260.9484763904932</v>
       </c>
       <c r="AC17" t="n">
-        <v>198.0620044153644</v>
+        <v>236.0439200473475</v>
       </c>
       <c r="AD17" t="n">
-        <v>160029.3080468362</v>
+        <v>190717.7770180619</v>
       </c>
       <c r="AE17" t="n">
-        <v>218959.1592643842</v>
+        <v>260948.4763904932</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.314007789118981e-06</v>
+        <v>5.66658399842666e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>7</v>
+        <v>6.215277777777778</v>
       </c>
       <c r="AH17" t="n">
-        <v>198062.0044153644</v>
+        <v>236043.9200473475</v>
       </c>
     </row>
     <row r="18">
@@ -53803,28 +53803,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>159.1546104072667</v>
+        <v>189.8430793784924</v>
       </c>
       <c r="AB18" t="n">
-        <v>217.7623593649895</v>
+        <v>259.7516764910984</v>
       </c>
       <c r="AC18" t="n">
-        <v>196.9794254186482</v>
+        <v>234.9613410506313</v>
       </c>
       <c r="AD18" t="n">
-        <v>159154.6104072667</v>
+        <v>189843.0793784924</v>
       </c>
       <c r="AE18" t="n">
-        <v>217762.3593649895</v>
+        <v>259751.6764910984</v>
       </c>
       <c r="AF18" t="n">
-        <v>3.329807842361781e-06</v>
+        <v>5.693600328676065e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>7</v>
+        <v>6.184413580246915</v>
       </c>
       <c r="AH18" t="n">
-        <v>196979.4254186482</v>
+        <v>234961.3410506313</v>
       </c>
     </row>
     <row r="19">
@@ -53909,28 +53909,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>158.1846940687645</v>
+        <v>188.8731630399902</v>
       </c>
       <c r="AB19" t="n">
-        <v>216.4352770409625</v>
+        <v>258.4245941670714</v>
       </c>
       <c r="AC19" t="n">
-        <v>195.7789979690542</v>
+        <v>233.7609136010374</v>
       </c>
       <c r="AD19" t="n">
-        <v>158184.6940687645</v>
+        <v>188873.1630399902</v>
       </c>
       <c r="AE19" t="n">
-        <v>216435.2770409625</v>
+        <v>258424.5941670714</v>
       </c>
       <c r="AF19" t="n">
-        <v>3.326124721842344e-06</v>
+        <v>5.687302603043602e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>195778.9979690542</v>
+        <v>233760.9136010374</v>
       </c>
     </row>
     <row r="20">
@@ -54015,28 +54015,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>157.6065078958888</v>
+        <v>188.2949768671145</v>
       </c>
       <c r="AB20" t="n">
-        <v>215.6441772114607</v>
+        <v>257.6334943375696</v>
       </c>
       <c r="AC20" t="n">
-        <v>195.0633995969642</v>
+        <v>233.0453152289474</v>
       </c>
       <c r="AD20" t="n">
-        <v>157606.5078958888</v>
+        <v>188294.9768671145</v>
       </c>
       <c r="AE20" t="n">
-        <v>215644.1772114607</v>
+        <v>257633.4943375696</v>
       </c>
       <c r="AF20" t="n">
-        <v>3.339629497080277e-06</v>
+        <v>5.710394263695964e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>7</v>
+        <v>6.165123456790123</v>
       </c>
       <c r="AH20" t="n">
-        <v>195063.3995969642</v>
+        <v>233045.3152289474</v>
       </c>
     </row>
     <row r="21">
@@ -54121,28 +54121,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>156.8540209686748</v>
+        <v>187.5424899399005</v>
       </c>
       <c r="AB21" t="n">
-        <v>214.6145914002668</v>
+        <v>256.6039085263757</v>
       </c>
       <c r="AC21" t="n">
-        <v>194.1320760105576</v>
+        <v>232.1139916425407</v>
       </c>
       <c r="AD21" t="n">
-        <v>156854.0209686748</v>
+        <v>187542.4899399005</v>
       </c>
       <c r="AE21" t="n">
-        <v>214614.5914002668</v>
+        <v>256603.9085263757</v>
       </c>
       <c r="AF21" t="n">
-        <v>3.343686267507483e-06</v>
+        <v>5.717330889030271e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>7</v>
+        <v>6.157407407407408</v>
       </c>
       <c r="AH21" t="n">
-        <v>194132.0760105576</v>
+        <v>232113.9916425407</v>
       </c>
     </row>
     <row r="22">
@@ -54227,28 +54227,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>155.9400485404923</v>
+        <v>186.628517511718</v>
       </c>
       <c r="AB22" t="n">
-        <v>213.3640540024103</v>
+        <v>255.3533711285192</v>
       </c>
       <c r="AC22" t="n">
-        <v>193.0008881468119</v>
+        <v>230.982803778795</v>
       </c>
       <c r="AD22" t="n">
-        <v>155940.0485404923</v>
+        <v>186628.517511718</v>
       </c>
       <c r="AE22" t="n">
-        <v>213364.0540024103</v>
+        <v>255353.3711285192</v>
       </c>
       <c r="AF22" t="n">
-        <v>3.342191667876408e-06</v>
+        <v>5.714775290222896e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>7</v>
+        <v>6.161265432098766</v>
       </c>
       <c r="AH22" t="n">
-        <v>193000.8881468119</v>
+        <v>230982.803778795</v>
       </c>
     </row>
     <row r="23">
@@ -54333,28 +54333,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>155.1633878010826</v>
+        <v>185.8518567723083</v>
       </c>
       <c r="AB23" t="n">
-        <v>212.3013925148969</v>
+        <v>254.2907096410057</v>
       </c>
       <c r="AC23" t="n">
-        <v>192.0396455802116</v>
+        <v>230.0215612121947</v>
       </c>
       <c r="AD23" t="n">
-        <v>155163.3878010826</v>
+        <v>185851.8567723083</v>
       </c>
       <c r="AE23" t="n">
-        <v>212301.3925148969</v>
+        <v>254290.7096410057</v>
       </c>
       <c r="AF23" t="n">
-        <v>3.35548292888133e-06</v>
+        <v>5.737501865331347e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>7</v>
+        <v>6.138117283950617</v>
       </c>
       <c r="AH23" t="n">
-        <v>192039.6455802116</v>
+        <v>230021.5612121947</v>
       </c>
     </row>
     <row r="24">
@@ -54439,28 +54439,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>155.5925106990045</v>
+        <v>186.2809796702302</v>
       </c>
       <c r="AB24" t="n">
-        <v>212.8885373953994</v>
+        <v>254.8778545215083</v>
       </c>
       <c r="AC24" t="n">
-        <v>192.5707541773822</v>
+        <v>230.5526698093653</v>
       </c>
       <c r="AD24" t="n">
-        <v>155592.5106990045</v>
+        <v>186280.9796702302</v>
       </c>
       <c r="AE24" t="n">
-        <v>212888.5373953994</v>
+        <v>254877.8545215083</v>
       </c>
       <c r="AF24" t="n">
-        <v>3.354575493391034e-06</v>
+        <v>5.735950251769726e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>7</v>
+        <v>6.138117283950617</v>
       </c>
       <c r="AH24" t="n">
-        <v>192570.7541773822</v>
+        <v>230552.6698093653</v>
       </c>
     </row>
   </sheetData>
@@ -54736,28 +54736,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.46028974033878</v>
+        <v>111.7888237945596</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.6670268983485</v>
+        <v>152.9544004904896</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.2461738049284</v>
+        <v>138.3566471805684</v>
       </c>
       <c r="AD2" t="n">
-        <v>87460.28974033878</v>
+        <v>111788.8237945596</v>
       </c>
       <c r="AE2" t="n">
-        <v>119667.0268983485</v>
+        <v>152954.4004904896</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.127988060112732e-06</v>
+        <v>8.848179724746925e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.412037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>108246.1738049284</v>
+        <v>138356.6471805684</v>
       </c>
     </row>
   </sheetData>
@@ -55033,28 +55033,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>179.994256403504</v>
+        <v>217.5072323038211</v>
       </c>
       <c r="AB2" t="n">
-        <v>246.2760823973219</v>
+        <v>297.6029909798057</v>
       </c>
       <c r="AC2" t="n">
-        <v>222.7718387440455</v>
+        <v>269.2001792092021</v>
       </c>
       <c r="AD2" t="n">
-        <v>179994.256403504</v>
+        <v>217507.2323038211</v>
       </c>
       <c r="AE2" t="n">
-        <v>246276.0823973219</v>
+        <v>297602.9909798057</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864323245278122e-06</v>
+        <v>5.277322338155164e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.916666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>222771.8387440455</v>
+        <v>269200.1792092021</v>
       </c>
     </row>
     <row r="3">
@@ -55139,28 +55139,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>144.1533879023671</v>
+        <v>181.5810229481125</v>
       </c>
       <c r="AB3" t="n">
-        <v>197.2370249265672</v>
+        <v>248.4471663868535</v>
       </c>
       <c r="AC3" t="n">
-        <v>178.4130000915346</v>
+        <v>224.7357175247524</v>
       </c>
       <c r="AD3" t="n">
-        <v>144153.3879023671</v>
+        <v>181581.0229481125</v>
       </c>
       <c r="AE3" t="n">
-        <v>197237.0249265672</v>
+        <v>248447.1663868535</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.368311981229712e-06</v>
+        <v>6.205887582598325e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.732253086419753</v>
       </c>
       <c r="AH3" t="n">
-        <v>178413.0000915346</v>
+        <v>224735.7175247524</v>
       </c>
     </row>
     <row r="4">
@@ -55245,28 +55245,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>136.5426630560489</v>
+        <v>164.5921436352661</v>
       </c>
       <c r="AB4" t="n">
-        <v>186.8236954303565</v>
+        <v>225.2022322145702</v>
       </c>
       <c r="AC4" t="n">
-        <v>168.9935041472392</v>
+        <v>203.7092472453944</v>
       </c>
       <c r="AD4" t="n">
-        <v>136542.6630560489</v>
+        <v>164592.1436352661</v>
       </c>
       <c r="AE4" t="n">
-        <v>186823.6954303565</v>
+        <v>225202.2322145702</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.547673888775298e-06</v>
+        <v>6.536349796618633e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.392746913580247</v>
       </c>
       <c r="AH4" t="n">
-        <v>168993.5041472392</v>
+        <v>203709.2472453944</v>
       </c>
     </row>
     <row r="5">
@@ -55351,28 +55351,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>132.413687089559</v>
+        <v>160.4631676687762</v>
       </c>
       <c r="AB5" t="n">
-        <v>181.1742483554443</v>
+        <v>219.552785139658</v>
       </c>
       <c r="AC5" t="n">
-        <v>163.8832323721061</v>
+        <v>198.5989754702613</v>
       </c>
       <c r="AD5" t="n">
-        <v>132413.687089559</v>
+        <v>160463.1676687762</v>
       </c>
       <c r="AE5" t="n">
-        <v>181174.2483554443</v>
+        <v>219552.785139658</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.637266660685974e-06</v>
+        <v>6.701418434497016e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.234567901234568</v>
       </c>
       <c r="AH5" t="n">
-        <v>163883.2323721061</v>
+        <v>198598.9754702613</v>
       </c>
     </row>
     <row r="6">
@@ -55457,28 +55457,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>129.5407017263547</v>
+        <v>157.5901823055719</v>
       </c>
       <c r="AB6" t="n">
-        <v>177.2433030343413</v>
+        <v>215.6218398185549</v>
       </c>
       <c r="AC6" t="n">
-        <v>160.3274509553314</v>
+        <v>195.0431940534867</v>
       </c>
       <c r="AD6" t="n">
-        <v>129540.7017263547</v>
+        <v>157590.1823055719</v>
       </c>
       <c r="AE6" t="n">
-        <v>177243.3030343413</v>
+        <v>215621.8398185549</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.690587293312603e-06</v>
+        <v>6.799658102840647e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH6" t="n">
-        <v>160327.4509553314</v>
+        <v>195043.1940534867</v>
       </c>
     </row>
     <row r="7">
@@ -55563,28 +55563,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>127.3972784338746</v>
+        <v>155.4467590130918</v>
       </c>
       <c r="AB7" t="n">
-        <v>174.3105767244096</v>
+        <v>212.6891135086233</v>
       </c>
       <c r="AC7" t="n">
-        <v>157.6746199283115</v>
+        <v>192.3903630264668</v>
       </c>
       <c r="AD7" t="n">
-        <v>127397.2784338746</v>
+        <v>155446.7590130919</v>
       </c>
       <c r="AE7" t="n">
-        <v>174310.5767244096</v>
+        <v>212689.1135086233</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.724743067905846e-06</v>
+        <v>6.862587813212918e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.087962962962963</v>
       </c>
       <c r="AH7" t="n">
-        <v>157674.6199283115</v>
+        <v>192390.3630264667</v>
       </c>
     </row>
     <row r="8">
@@ -55669,28 +55669,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>125.4284828850333</v>
+        <v>153.4779634642505</v>
       </c>
       <c r="AB8" t="n">
-        <v>171.6167837973567</v>
+        <v>209.9953205815704</v>
       </c>
       <c r="AC8" t="n">
-        <v>155.2379188174536</v>
+        <v>189.9536619156088</v>
       </c>
       <c r="AD8" t="n">
-        <v>125428.4828850333</v>
+        <v>153477.9634642505</v>
       </c>
       <c r="AE8" t="n">
-        <v>171616.7837973567</v>
+        <v>209995.3205815704</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.747905503688527e-06</v>
+        <v>6.905263038491187e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.05324074074074</v>
       </c>
       <c r="AH8" t="n">
-        <v>155237.9188174536</v>
+        <v>189953.6619156088</v>
       </c>
     </row>
     <row r="9">
@@ -55775,28 +55775,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>124.7029497649815</v>
+        <v>152.7524303441987</v>
       </c>
       <c r="AB9" t="n">
-        <v>170.6240773742401</v>
+        <v>209.0026141584538</v>
       </c>
       <c r="AC9" t="n">
-        <v>154.3399549020866</v>
+        <v>189.0556980002419</v>
       </c>
       <c r="AD9" t="n">
-        <v>124702.9497649815</v>
+        <v>152752.4303441987</v>
       </c>
       <c r="AE9" t="n">
-        <v>170624.0773742401</v>
+        <v>209002.6141584538</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.758134599694076e-06</v>
+        <v>6.924109457776514e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.033950617283951</v>
       </c>
       <c r="AH9" t="n">
-        <v>154339.9549020866</v>
+        <v>189055.6980002419</v>
       </c>
     </row>
   </sheetData>
@@ -56072,28 +56072,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>226.4081831602952</v>
+        <v>274.8916635102383</v>
       </c>
       <c r="AB2" t="n">
-        <v>309.7816646238652</v>
+        <v>376.1189013789968</v>
       </c>
       <c r="AC2" t="n">
-        <v>280.2165373335522</v>
+        <v>340.2226413175781</v>
       </c>
       <c r="AD2" t="n">
-        <v>226408.1831602952</v>
+        <v>274891.6635102383</v>
       </c>
       <c r="AE2" t="n">
-        <v>309781.6646238652</v>
+        <v>376118.9013789968</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.509198054687664e-06</v>
+        <v>4.482499207739859e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.703703703703702</v>
       </c>
       <c r="AH2" t="n">
-        <v>280216.5373335522</v>
+        <v>340222.641317578</v>
       </c>
     </row>
     <row r="3">
@@ -56178,28 +56178,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>175.588226769621</v>
+        <v>204.7296090008788</v>
       </c>
       <c r="AB3" t="n">
-        <v>240.2475582719374</v>
+        <v>280.1200830677733</v>
       </c>
       <c r="AC3" t="n">
-        <v>217.318668500099</v>
+        <v>253.3858154908731</v>
       </c>
       <c r="AD3" t="n">
-        <v>175588.226769621</v>
+        <v>204729.6090008788</v>
       </c>
       <c r="AE3" t="n">
-        <v>240247.5582719374</v>
+        <v>280120.0830677733</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.080916216521104e-06</v>
+        <v>5.503831980846877e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.087191358024692</v>
       </c>
       <c r="AH3" t="n">
-        <v>217318.668500099</v>
+        <v>253385.8154908731</v>
       </c>
     </row>
     <row r="4">
@@ -56284,28 +56284,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>155.7750640127131</v>
+        <v>194.5447801217505</v>
       </c>
       <c r="AB4" t="n">
-        <v>213.1383148928993</v>
+        <v>266.1847508724184</v>
       </c>
       <c r="AC4" t="n">
-        <v>192.7966932610857</v>
+        <v>240.7804518418768</v>
       </c>
       <c r="AD4" t="n">
-        <v>155775.0640127131</v>
+        <v>194544.7801217505</v>
       </c>
       <c r="AE4" t="n">
-        <v>213138.3148928993</v>
+        <v>266184.7508724184</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.273526542698631e-06</v>
+        <v>5.847916272192604e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.670524691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>192796.6932610857</v>
+        <v>240780.4518418768</v>
       </c>
     </row>
     <row r="5">
@@ -56390,28 +56390,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>150.0007197828471</v>
+        <v>179.0567611595333</v>
       </c>
       <c r="AB5" t="n">
-        <v>205.2376023715123</v>
+        <v>244.9933600451506</v>
       </c>
       <c r="AC5" t="n">
-        <v>185.6500136540176</v>
+        <v>221.6115376128529</v>
       </c>
       <c r="AD5" t="n">
-        <v>150000.7197828471</v>
+        <v>179056.7611595333</v>
       </c>
       <c r="AE5" t="n">
-        <v>205237.6023715122</v>
+        <v>244993.3600451506</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.388538056889855e-06</v>
+        <v>6.053375948952672e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.442901234567901</v>
       </c>
       <c r="AH5" t="n">
-        <v>185650.0136540176</v>
+        <v>221611.5376128529</v>
       </c>
     </row>
     <row r="6">
@@ -56496,28 +56496,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>146.7003546297969</v>
+        <v>175.7563960064831</v>
       </c>
       <c r="AB6" t="n">
-        <v>200.7218971672767</v>
+        <v>240.477654840915</v>
       </c>
       <c r="AC6" t="n">
-        <v>181.5652810166408</v>
+        <v>217.5268049754761</v>
       </c>
       <c r="AD6" t="n">
-        <v>146700.3546297969</v>
+        <v>175756.3960064831</v>
       </c>
       <c r="AE6" t="n">
-        <v>200721.8971672767</v>
+        <v>240477.654840915</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.453175433467796e-06</v>
+        <v>6.168845905084562e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.323302469135803</v>
       </c>
       <c r="AH6" t="n">
-        <v>181565.2810166408</v>
+        <v>217526.8049754761</v>
       </c>
     </row>
     <row r="7">
@@ -56602,28 +56602,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>143.7720794091808</v>
+        <v>172.8281207858669</v>
       </c>
       <c r="AB7" t="n">
-        <v>196.7153018240465</v>
+        <v>236.4710594976848</v>
       </c>
       <c r="AC7" t="n">
-        <v>177.9410695096754</v>
+        <v>213.9025934685106</v>
       </c>
       <c r="AD7" t="n">
-        <v>143772.0794091808</v>
+        <v>172828.1207858669</v>
       </c>
       <c r="AE7" t="n">
-        <v>196715.3018240465</v>
+        <v>236471.0594976848</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.504568373864268e-06</v>
+        <v>6.260655642534435e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.23070987654321</v>
       </c>
       <c r="AH7" t="n">
-        <v>177941.0695096754</v>
+        <v>213902.5934685106</v>
       </c>
     </row>
     <row r="8">
@@ -56708,28 +56708,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>142.2498817626148</v>
+        <v>171.305923139301</v>
       </c>
       <c r="AB8" t="n">
-        <v>194.6325638493954</v>
+        <v>234.3883215230337</v>
       </c>
       <c r="AC8" t="n">
-        <v>176.0571051241832</v>
+        <v>212.0186290830185</v>
       </c>
       <c r="AD8" t="n">
-        <v>142249.8817626149</v>
+        <v>171305.923139301</v>
       </c>
       <c r="AE8" t="n">
-        <v>194632.5638493954</v>
+        <v>234388.3215230338</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.526076432620502e-06</v>
+        <v>6.2990782198813e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.19212962962963</v>
       </c>
       <c r="AH8" t="n">
-        <v>176057.1051241832</v>
+        <v>212018.6290830185</v>
       </c>
     </row>
     <row r="9">
@@ -56814,28 +56814,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>140.6010951704184</v>
+        <v>169.6571365471046</v>
       </c>
       <c r="AB9" t="n">
-        <v>192.3766212946227</v>
+        <v>232.132378968261</v>
       </c>
       <c r="AC9" t="n">
-        <v>174.016466560602</v>
+        <v>209.9779905194372</v>
       </c>
       <c r="AD9" t="n">
-        <v>140601.0951704184</v>
+        <v>169657.1365471046</v>
       </c>
       <c r="AE9" t="n">
-        <v>192376.6212946227</v>
+        <v>232132.378968261</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.549225895860762e-06</v>
+        <v>6.340433046552001e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>7</v>
+        <v>6.153549382716049</v>
       </c>
       <c r="AH9" t="n">
-        <v>174016.466560602</v>
+        <v>209977.9905194372</v>
       </c>
     </row>
     <row r="10">
@@ -56920,28 +56920,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>138.5197139223729</v>
+        <v>167.575755299059</v>
       </c>
       <c r="AB10" t="n">
-        <v>189.5287836469881</v>
+        <v>229.2845413206264</v>
       </c>
       <c r="AC10" t="n">
-        <v>171.4404225410915</v>
+        <v>207.4019464999267</v>
       </c>
       <c r="AD10" t="n">
-        <v>138519.7139223728</v>
+        <v>167575.755299059</v>
       </c>
       <c r="AE10" t="n">
-        <v>189528.7836469881</v>
+        <v>229284.5413206264</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.576054369151432e-06</v>
+        <v>6.388360156189932e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>7</v>
+        <v>6.107253086419753</v>
       </c>
       <c r="AH10" t="n">
-        <v>171440.4225410915</v>
+        <v>207401.9464999267</v>
       </c>
     </row>
     <row r="11">
@@ -57026,28 +57026,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>137.3551386371302</v>
+        <v>166.4111800138164</v>
       </c>
       <c r="AB11" t="n">
-        <v>187.9353603642844</v>
+        <v>227.6911180379227</v>
       </c>
       <c r="AC11" t="n">
-        <v>169.9990733401049</v>
+        <v>205.9605972989401</v>
       </c>
       <c r="AD11" t="n">
-        <v>137355.1386371302</v>
+        <v>166411.1800138164</v>
       </c>
       <c r="AE11" t="n">
-        <v>187935.3603642844</v>
+        <v>227691.1180379227</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.586242396983332e-06</v>
+        <v>6.406560324406867e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>7</v>
+        <v>6.087962962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>169999.0733401049</v>
+        <v>205960.5972989401</v>
       </c>
     </row>
     <row r="12">
@@ -57132,28 +57132,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>135.8728197554</v>
+        <v>164.9288611320862</v>
       </c>
       <c r="AB12" t="n">
-        <v>185.9071862750084</v>
+        <v>225.6629439486467</v>
       </c>
       <c r="AC12" t="n">
-        <v>168.1644653393485</v>
+        <v>204.1259892981838</v>
       </c>
       <c r="AD12" t="n">
-        <v>135872.8197554</v>
+        <v>164928.8611320862</v>
       </c>
       <c r="AE12" t="n">
-        <v>185907.1862750084</v>
+        <v>225662.9439486467</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.599996234556397e-06</v>
+        <v>6.43113055149973e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>7</v>
+        <v>6.064814814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>168164.4653393485</v>
+        <v>204125.9892981838</v>
       </c>
     </row>
     <row r="13">
@@ -57238,28 +57238,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>135.6743818386047</v>
+        <v>164.7304232152908</v>
       </c>
       <c r="AB13" t="n">
-        <v>185.6356747627861</v>
+        <v>225.3914324364245</v>
       </c>
       <c r="AC13" t="n">
-        <v>167.9188665047839</v>
+        <v>203.8803904636191</v>
       </c>
       <c r="AD13" t="n">
-        <v>135674.3818386047</v>
+        <v>164730.4232152908</v>
       </c>
       <c r="AE13" t="n">
-        <v>185635.6747627861</v>
+        <v>225391.4324364245</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.597336027289178e-06</v>
+        <v>6.426378285354196e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>7</v>
+        <v>6.068672839506173</v>
       </c>
       <c r="AH13" t="n">
-        <v>167918.8665047839</v>
+        <v>203880.3904636191</v>
       </c>
     </row>
     <row r="14">
@@ -57344,28 +57344,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>136.0821753547003</v>
+        <v>165.1382167313865</v>
       </c>
       <c r="AB14" t="n">
-        <v>186.1936358420882</v>
+        <v>225.9493935157264</v>
       </c>
       <c r="AC14" t="n">
-        <v>168.4235765617808</v>
+        <v>204.385100520616</v>
       </c>
       <c r="AD14" t="n">
-        <v>136082.1753547003</v>
+        <v>165138.2167313865</v>
       </c>
       <c r="AE14" t="n">
-        <v>186193.6358420881</v>
+        <v>225949.3935157264</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.596487024969853e-06</v>
+        <v>6.424861604669453e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>7</v>
+        <v>6.072530864197531</v>
       </c>
       <c r="AH14" t="n">
-        <v>168423.5765617808</v>
+        <v>204385.100520616</v>
       </c>
     </row>
   </sheetData>
